--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1213834.90502764</v>
+        <v>1213097.382628941</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1608023.069889033</v>
+        <v>1608023.069889036</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.5378344848627</v>
       </c>
       <c r="C11" t="n">
-        <v>244.8065201724103</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>234.426157248066</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.3265899735539</v>
       </c>
       <c r="F11" t="n">
-        <v>99.64259451265809</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1492688429794</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5689976340753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73160841495374</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>71.67916269170991</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47994477460604</v>
+        <v>98.47994477460605</v>
       </c>
       <c r="U11" t="n">
         <v>129.2570343856665</v>
@@ -1430,10 +1430,10 @@
         <v>206.354646015987</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,22 +1452,22 @@
         <v>48.84700842086863</v>
       </c>
       <c r="D12" t="n">
-        <v>23.93384806811321</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>33.85485820064147</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.32765657701694</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7412825862149</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.174607680319344</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S12" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T12" t="n">
-        <v>75.06759025391869</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6386291975415</v>
+        <v>102.4600536910092</v>
       </c>
       <c r="V12" t="n">
-        <v>109.7301555331228</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>162.5343302789647</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.49257591205367</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1543,10 +1543,10 @@
         <v>45.4746547785133</v>
       </c>
       <c r="H13" t="n">
-        <v>37.35405327628415</v>
+        <v>37.35405327628413</v>
       </c>
       <c r="I13" t="n">
-        <v>24.4720222193581</v>
+        <v>24.47202221935808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.585027995262</v>
+        <v>40.58502799526198</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05974488593891</v>
+        <v>96.05974488593893</v>
       </c>
       <c r="T13" t="n">
         <v>105.1439944560723</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.426157248066</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>260.9394602487551</v>
@@ -1619,13 +1619,13 @@
         <v>285.1152879740085</v>
       </c>
       <c r="G14" t="n">
-        <v>292.1492688429794</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5689976340753</v>
+        <v>58.50422506876541</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73160841495373</v>
+        <v>62.73160841495371</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.67916269170989</v>
+        <v>71.67916269170991</v>
       </c>
       <c r="T14" t="n">
-        <v>26.13134562257748</v>
+        <v>98.47994477460604</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2570343856665</v>
       </c>
       <c r="V14" t="n">
         <v>206.354646015987</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3515414940222</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.683023624637</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,19 +1686,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.84700842086863</v>
       </c>
       <c r="D15" t="n">
-        <v>23.93384806811319</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.85485820064147</v>
       </c>
       <c r="F15" t="n">
-        <v>21.32765657701692</v>
+        <v>21.32765657701694</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7412825862149</v>
+        <v>13.56270707968252</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S15" t="n">
-        <v>41.54635653185666</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T15" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4600536910092</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>144.45371456862</v>
       </c>
       <c r="W15" t="n">
-        <v>162.5343302789658</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.28305410194589</v>
+        <v>82.28305410194591</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.49257591205365</v>
+        <v>81.49257591205367</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.90511598415144</v>
+        <v>57.90511598415145</v>
       </c>
       <c r="C16" t="n">
-        <v>45.15797742466997</v>
+        <v>45.15797742466998</v>
       </c>
       <c r="D16" t="n">
-        <v>26.82699100798699</v>
+        <v>26.826991007987</v>
       </c>
       <c r="E16" t="n">
-        <v>24.79604866666681</v>
+        <v>24.79604866666682</v>
       </c>
       <c r="F16" t="n">
-        <v>23.98044590327213</v>
+        <v>23.98044590327214</v>
       </c>
       <c r="G16" t="n">
-        <v>45.47465477851328</v>
+        <v>45.4746547785133</v>
       </c>
       <c r="H16" t="n">
         <v>37.35405327628415</v>
       </c>
       <c r="I16" t="n">
-        <v>24.47202221935807</v>
+        <v>24.47202221935809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58502799526197</v>
+        <v>40.58502799526199</v>
       </c>
       <c r="S16" t="n">
         <v>96.05974488593891</v>
@@ -1831,7 +1831,7 @@
         <v>103.9617844257769</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.57009836123585</v>
+        <v>96.57009836123586</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.1543066784409</v>
+        <v>160.1543066784408</v>
       </c>
       <c r="C17" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659905</v>
       </c>
       <c r="D17" t="n">
         <v>133.0426294416442</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5559324423333</v>
+        <v>159.5559324423332</v>
       </c>
       <c r="F17" t="n">
-        <v>183.7317601675873</v>
+        <v>183.7317601675866</v>
       </c>
       <c r="G17" t="n">
         <v>190.7657410365576</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.87350657924474</v>
+        <v>27.87350657924468</v>
       </c>
       <c r="V17" t="n">
-        <v>104.9711182095652</v>
+        <v>104.9711182095651</v>
       </c>
       <c r="W17" t="n">
         <v>126.9680136876004</v>
@@ -1910,7 +1910,7 @@
         <v>147.2994958182152</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.1249684382817</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.7412825862149</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.75501607965702</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U18" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>20.75928293318364</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>201.3509527142424</v>
+        <v>3.760466649650433</v>
       </c>
       <c r="U19" t="n">
-        <v>62.47727478837938</v>
+        <v>62.47727478837933</v>
       </c>
       <c r="V19" t="n">
-        <v>29.374247753985</v>
+        <v>64.20113031678285</v>
       </c>
       <c r="W19" t="n">
-        <v>62.53047357446138</v>
+        <v>62.53047357446133</v>
       </c>
       <c r="X19" t="n">
-        <v>2.578256619355102</v>
+        <v>2.578256619355045</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160.1543066784409</v>
+        <v>160.1543066784408</v>
       </c>
       <c r="C20" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659884</v>
       </c>
       <c r="D20" t="n">
         <v>133.0426294416442</v>
       </c>
       <c r="E20" t="n">
-        <v>159.5559324423333</v>
+        <v>159.5559324423332</v>
       </c>
       <c r="F20" t="n">
-        <v>183.7317601675867</v>
+        <v>183.7317601675866</v>
       </c>
       <c r="G20" t="n">
         <v>190.7657410365576</v>
       </c>
       <c r="H20" t="n">
-        <v>109.1854698276535</v>
+        <v>109.185469827654</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.87350657924474</v>
+        <v>27.87350657924468</v>
       </c>
       <c r="V20" t="n">
-        <v>104.9711182095652</v>
+        <v>104.9711182095651</v>
       </c>
       <c r="W20" t="n">
         <v>126.9680136876004</v>
@@ -2147,7 +2147,7 @@
         <v>147.2994958182152</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.1249684382819</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>71.35963378498037</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.7412825862149</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.79682501022856</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U21" t="n">
-        <v>1.076525884587368</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V21" t="n">
-        <v>8.346627726700973</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>130.2124052991131</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.5904860645919</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.76046664965049</v>
+        <v>3.760466649650433</v>
       </c>
       <c r="U22" t="n">
-        <v>62.47727478837938</v>
+        <v>62.47727478837933</v>
       </c>
       <c r="V22" t="n">
-        <v>29.374247753985</v>
+        <v>29.37424775398495</v>
       </c>
       <c r="W22" t="n">
-        <v>62.53047357446138</v>
+        <v>62.53047357446133</v>
       </c>
       <c r="X22" t="n">
-        <v>2.578256619355102</v>
+        <v>200.1687426839473</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>160.1543066784409</v>
+        <v>160.1543066784408</v>
       </c>
       <c r="C23" t="n">
-        <v>143.4229923659885</v>
+        <v>143.4229923659884</v>
       </c>
       <c r="D23" t="n">
         <v>133.0426294416442</v>
       </c>
       <c r="E23" t="n">
-        <v>159.5559324423333</v>
+        <v>159.5559324423332</v>
       </c>
       <c r="F23" t="n">
-        <v>183.7317601675867</v>
+        <v>183.7317601675866</v>
       </c>
       <c r="G23" t="n">
         <v>190.7657410365576</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.87350657924474</v>
+        <v>27.87350657924468</v>
       </c>
       <c r="V23" t="n">
-        <v>104.9711182095652</v>
+        <v>104.9711182095651</v>
       </c>
       <c r="W23" t="n">
         <v>126.9680136876004</v>
@@ -2384,7 +2384,7 @@
         <v>147.2994958182152</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.1249684382817</v>
+        <v>163.1249684382816</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2403,13 +2403,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>103.4926167724849</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T24" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V24" t="n">
-        <v>19.72683384792466</v>
+        <v>8.346627726700916</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2463,7 +2463,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>125.4621973427253</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.12828872186662</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.76046664965049</v>
+        <v>3.760466649650433</v>
       </c>
       <c r="U25" t="n">
-        <v>62.47727478837938</v>
+        <v>62.47727478837933</v>
       </c>
       <c r="V25" t="n">
-        <v>29.374247753985</v>
+        <v>226.9647338185772</v>
       </c>
       <c r="W25" t="n">
-        <v>62.53047357446138</v>
+        <v>62.53047357446133</v>
       </c>
       <c r="X25" t="n">
-        <v>2.578256619355102</v>
+        <v>2.578256619355045</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.6494943059588</v>
+        <v>241.6494943059587</v>
       </c>
       <c r="C26" t="n">
-        <v>224.9181799935064</v>
+        <v>224.9181799935063</v>
       </c>
       <c r="D26" t="n">
         <v>214.5378170691621</v>
@@ -2564,7 +2564,7 @@
         <v>241.0511200698512</v>
       </c>
       <c r="F26" t="n">
-        <v>265.2269477951046</v>
+        <v>265.2269477951045</v>
       </c>
       <c r="G26" t="n">
         <v>272.2609286640755</v>
@@ -2573,7 +2573,7 @@
         <v>190.6806574551714</v>
       </c>
       <c r="I26" t="n">
-        <v>42.84326823604982</v>
+        <v>42.84326823604978</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.79082251280463</v>
+        <v>51.79082251280595</v>
       </c>
       <c r="T26" t="n">
-        <v>78.59160459570214</v>
+        <v>78.59160459570209</v>
       </c>
       <c r="U26" t="n">
         <v>109.3686942067626</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4663058370831</v>
+        <v>186.466305837083</v>
       </c>
       <c r="W26" t="n">
         <v>208.4632013151183</v>
@@ -2637,19 +2637,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>14.55196571951183</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>1.439316398113021</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>94.02282783043368</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S27" t="n">
-        <v>21.65801635295276</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T27" t="n">
-        <v>55.17925007501477</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386291975415</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>61.60423573314972</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.01677580524753</v>
+        <v>38.01677580524751</v>
       </c>
       <c r="C28" t="n">
-        <v>25.26963724576606</v>
+        <v>25.26963724576603</v>
       </c>
       <c r="D28" t="n">
-        <v>6.938650829083088</v>
+        <v>6.938650829083059</v>
       </c>
       <c r="E28" t="n">
-        <v>4.907708487762903</v>
+        <v>4.907708487762875</v>
       </c>
       <c r="F28" t="n">
-        <v>4.092105724368224</v>
+        <v>4.092105724368196</v>
       </c>
       <c r="G28" t="n">
-        <v>25.58631459960938</v>
+        <v>25.58631459960935</v>
       </c>
       <c r="H28" t="n">
-        <v>17.46571309738023</v>
+        <v>17.4657130973802</v>
       </c>
       <c r="I28" t="n">
-        <v>4.583682040454177</v>
+        <v>4.583682040454146</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.69668781635808</v>
+        <v>20.69668781635804</v>
       </c>
       <c r="S28" t="n">
-        <v>76.17140470703499</v>
+        <v>76.17140470703497</v>
       </c>
       <c r="T28" t="n">
-        <v>85.25565427716838</v>
+        <v>85.25565427716835</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9724624158973</v>
+        <v>143.9724624158972</v>
       </c>
       <c r="V28" t="n">
         <v>110.8694353815029</v>
       </c>
       <c r="W28" t="n">
-        <v>144.0256612019793</v>
+        <v>144.0256612019792</v>
       </c>
       <c r="X28" t="n">
-        <v>84.07344424687298</v>
+        <v>84.07344424687295</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.68175818233195</v>
+        <v>76.68175818233192</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.6494943059588</v>
+        <v>241.6494943059587</v>
       </c>
       <c r="C29" t="n">
-        <v>224.9181799935064</v>
+        <v>224.9181799935063</v>
       </c>
       <c r="D29" t="n">
         <v>214.5378170691621</v>
@@ -2801,7 +2801,7 @@
         <v>241.0511200698512</v>
       </c>
       <c r="F29" t="n">
-        <v>265.2269477951046</v>
+        <v>265.2269477951045</v>
       </c>
       <c r="G29" t="n">
         <v>272.2609286640755</v>
@@ -2810,7 +2810,7 @@
         <v>190.6806574551714</v>
       </c>
       <c r="I29" t="n">
-        <v>42.84326823604982</v>
+        <v>42.84326823604977</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.79082251280599</v>
+        <v>51.79082251280596</v>
       </c>
       <c r="T29" t="n">
-        <v>78.59160459570212</v>
+        <v>78.59160459570211</v>
       </c>
       <c r="U29" t="n">
         <v>109.3686942067626</v>
       </c>
       <c r="V29" t="n">
-        <v>186.4663058370831</v>
+        <v>186.466305837083</v>
       </c>
       <c r="W29" t="n">
         <v>208.4632013151183</v>
@@ -2877,13 +2877,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.96651802173753</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10.50645783030224</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S30" t="n">
-        <v>21.65801635295276</v>
+        <v>21.65801635295273</v>
       </c>
       <c r="T30" t="n">
         <v>197.246165760451</v>
       </c>
       <c r="U30" t="n">
-        <v>170.268908243318</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.01677580524753</v>
+        <v>38.01677580524751</v>
       </c>
       <c r="C31" t="n">
-        <v>25.26963724576606</v>
+        <v>25.26963724576603</v>
       </c>
       <c r="D31" t="n">
-        <v>6.938650829083088</v>
+        <v>6.938650829083059</v>
       </c>
       <c r="E31" t="n">
-        <v>4.907708487762903</v>
+        <v>4.907708487762875</v>
       </c>
       <c r="F31" t="n">
-        <v>4.092105724368224</v>
+        <v>4.092105724368196</v>
       </c>
       <c r="G31" t="n">
-        <v>25.58631459960938</v>
+        <v>25.58631459960935</v>
       </c>
       <c r="H31" t="n">
-        <v>17.46571309738023</v>
+        <v>17.4657130973802</v>
       </c>
       <c r="I31" t="n">
-        <v>4.583682040454177</v>
+        <v>4.583682040454146</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.69668781635808</v>
+        <v>20.69668781635804</v>
       </c>
       <c r="S31" t="n">
-        <v>76.17140470703499</v>
+        <v>76.17140470703497</v>
       </c>
       <c r="T31" t="n">
-        <v>85.25565427716838</v>
+        <v>85.25565427716835</v>
       </c>
       <c r="U31" t="n">
-        <v>143.9724624158973</v>
+        <v>143.9724624158972</v>
       </c>
       <c r="V31" t="n">
         <v>110.8694353815029</v>
       </c>
       <c r="W31" t="n">
-        <v>144.0256612019793</v>
+        <v>144.0256612019792</v>
       </c>
       <c r="X31" t="n">
-        <v>84.07344424687298</v>
+        <v>84.07344424687295</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.68175818233195</v>
+        <v>76.68175818233192</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>190.6806574551714</v>
       </c>
       <c r="I32" t="n">
-        <v>42.84326823604982</v>
+        <v>42.84326823604979</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>1.439316398113021</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S33" t="n">
-        <v>109.3552110841652</v>
+        <v>21.65801635295276</v>
       </c>
       <c r="T33" t="n">
-        <v>55.17925007501477</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U33" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>106.6739062837427</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
@@ -3205,7 +3205,7 @@
         <v>17.46571309738023</v>
       </c>
       <c r="I34" t="n">
-        <v>4.583682040454177</v>
+        <v>4.583682040454175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.69668781635808</v>
+        <v>20.69668781635807</v>
       </c>
       <c r="S34" t="n">
         <v>76.17140470703499</v>
@@ -3345,13 +3345,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>124.659221707122</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U36" t="n">
-        <v>1.459638478667613</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>78.27138874502874</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.143579243730736</v>
+        <v>199.8185023379215</v>
       </c>
       <c r="U37" t="n">
         <v>62.86038738245963</v>
@@ -3487,7 +3487,7 @@
         <v>62.91358616854163</v>
       </c>
       <c r="X37" t="n">
-        <v>49.63072579310668</v>
+        <v>2.961369213435347</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3591,13 +3591,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>61.1941223533588</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U39" t="n">
-        <v>186.2837795208263</v>
+        <v>224.6386291975415</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>8.729740320781218</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>32.91131959239638</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>162.7636035017943</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.143579243730736</v>
+        <v>4.143579243730735</v>
       </c>
       <c r="U40" t="n">
         <v>62.86038738245963</v>
@@ -3721,7 +3721,7 @@
         <v>29.75736034806525</v>
       </c>
       <c r="W40" t="n">
-        <v>258.5885092627323</v>
+        <v>62.91358616854163</v>
       </c>
       <c r="X40" t="n">
         <v>2.961369213435347</v>
@@ -3743,7 +3743,7 @@
         <v>146.3265753978042</v>
       </c>
       <c r="D41" t="n">
-        <v>135.9462124734608</v>
+        <v>135.94621247346</v>
       </c>
       <c r="E41" t="n">
         <v>162.459515474149</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77708961106048</v>
+        <v>30.77708961106049</v>
       </c>
       <c r="V41" t="n">
         <v>107.8747012413809</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -3834,7 +3834,7 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H42" t="n">
-        <v>50.10625945157658</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U42" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>11.25021075851672</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>197.4903532025229</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.0725709055131</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.664049681466233</v>
+        <v>6.664049681466232</v>
       </c>
       <c r="U43" t="n">
         <v>65.38085782019513</v>
@@ -3958,7 +3958,7 @@
         <v>32.27783078580075</v>
       </c>
       <c r="W43" t="n">
-        <v>65.43405660627712</v>
+        <v>248.5066275117904</v>
       </c>
       <c r="X43" t="n">
         <v>5.481839651170844</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -4062,10 +4062,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U45" t="n">
         <v>224.6386291975415</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>46.87833189849848</v>
       </c>
       <c r="W45" t="n">
-        <v>38.20899090752586</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>9.652929096295487</v>
+        <v>6.664049681466232</v>
       </c>
       <c r="U46" t="n">
         <v>65.38085782019513</v>
       </c>
       <c r="V46" t="n">
-        <v>32.27783078580075</v>
+        <v>215.350401691314</v>
       </c>
       <c r="W46" t="n">
         <v>65.43405660627712</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1189.899569761392</v>
+        <v>443.8668428891464</v>
       </c>
       <c r="C11" t="n">
-        <v>942.6202564559267</v>
+        <v>443.8668428891464</v>
       </c>
       <c r="D11" t="n">
-        <v>705.8261582255569</v>
+        <v>207.0727446587766</v>
       </c>
       <c r="E11" t="n">
-        <v>705.8261582255569</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="F11" t="n">
-        <v>605.1770728592356</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="G11" t="n">
-        <v>310.0768013006706</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H11" t="n">
-        <v>97.38084409453404</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I11" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J11" t="n">
-        <v>72.99365786263508</v>
+        <v>72.993657862634</v>
       </c>
       <c r="K11" t="n">
-        <v>260.6481166474513</v>
+        <v>260.6481166474503</v>
       </c>
       <c r="L11" t="n">
-        <v>545.4191444354849</v>
+        <v>545.4191444354839</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4940762105006</v>
+        <v>877.4940762104995</v>
       </c>
       <c r="N11" t="n">
-        <v>1199.425152563019</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O11" t="n">
-        <v>1457.28718770936</v>
+        <v>1457.287187709359</v>
       </c>
       <c r="P11" t="n">
-        <v>1640.427675689728</v>
+        <v>1640.427675689727</v>
       </c>
       <c r="Q11" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R11" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="S11" t="n">
-        <v>1628.375958828321</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="T11" t="n">
-        <v>1528.901267136799</v>
+        <v>1528.901267136798</v>
       </c>
       <c r="U11" t="n">
-        <v>1398.338606141177</v>
+        <v>1398.338606141176</v>
       </c>
       <c r="V11" t="n">
-        <v>1189.899569761392</v>
+        <v>1189.899569761391</v>
       </c>
       <c r="W11" t="n">
-        <v>1189.899569761392</v>
+        <v>959.2414470401562</v>
       </c>
       <c r="X11" t="n">
-        <v>1189.899569761392</v>
+        <v>708.046473681937</v>
       </c>
       <c r="Y11" t="n">
-        <v>1189.899569761392</v>
+        <v>708.046473681937</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>536.8413661963946</v>
+        <v>300.3839202944344</v>
       </c>
       <c r="C12" t="n">
-        <v>487.5009536500626</v>
+        <v>251.0435077481025</v>
       </c>
       <c r="D12" t="n">
-        <v>463.3253495408574</v>
+        <v>103.4552011070463</v>
       </c>
       <c r="E12" t="n">
-        <v>429.128523075563</v>
+        <v>69.2583746417519</v>
       </c>
       <c r="F12" t="n">
-        <v>284.1727330921798</v>
+        <v>47.71528719021964</v>
       </c>
       <c r="G12" t="n">
-        <v>147.0603264394375</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H12" t="n">
-        <v>38.23235850399423</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J12" t="n">
-        <v>34.01558306932823</v>
+        <v>67.77851149822686</v>
       </c>
       <c r="K12" t="n">
-        <v>218.3274186667172</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L12" t="n">
-        <v>218.3274186667172</v>
+        <v>560.769962512762</v>
       </c>
       <c r="M12" t="n">
-        <v>631.3421644563871</v>
+        <v>973.7847083024319</v>
       </c>
       <c r="N12" t="n">
-        <v>997.8185348433155</v>
+        <v>1366.492559650726</v>
       </c>
       <c r="O12" t="n">
-        <v>1332.105128659</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="P12" t="n">
-        <v>1583.973050344103</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="Q12" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R12" t="n">
-        <v>1700.779153466411</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S12" t="n">
-        <v>1535.400434235715</v>
+        <v>1457.429992921664</v>
       </c>
       <c r="T12" t="n">
-        <v>1459.574585494383</v>
+        <v>1258.191441648481</v>
       </c>
       <c r="U12" t="n">
-        <v>1232.66687923424</v>
+        <v>1154.696437920189</v>
       </c>
       <c r="V12" t="n">
-        <v>1121.828338291692</v>
+        <v>920.4451944457894</v>
       </c>
       <c r="W12" t="n">
-        <v>869.3138466250253</v>
+        <v>756.269103254916</v>
       </c>
       <c r="X12" t="n">
-        <v>662.7869480306028</v>
+        <v>549.7422046604935</v>
       </c>
       <c r="Y12" t="n">
-        <v>580.4712147861042</v>
+        <v>344.013768884144</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5188,13 @@
         <v>142.4001591038288</v>
       </c>
       <c r="G13" t="n">
-        <v>96.46616437805778</v>
+        <v>96.4661643780577</v>
       </c>
       <c r="H13" t="n">
-        <v>58.73479743231621</v>
+        <v>58.73479743231616</v>
       </c>
       <c r="I13" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J13" t="n">
         <v>83.5653669861473</v>
@@ -5203,19 +5203,19 @@
         <v>217.0814624720376</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9134546823793</v>
+        <v>409.9134546823795</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2454674020859</v>
+        <v>617.2454674020861</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6649322725642</v>
+        <v>827.6649322725643</v>
       </c>
       <c r="O13" t="n">
         <v>1015.918385894576</v>
       </c>
       <c r="P13" t="n">
-        <v>1171.236616050932</v>
+        <v>1171.236616050933</v>
       </c>
       <c r="Q13" t="n">
         <v>1232.824208242338</v>
@@ -5227,13 +5227,13 @@
         <v>1094.799185130014</v>
       </c>
       <c r="T13" t="n">
-        <v>988.5931301238805</v>
+        <v>988.5931301238803</v>
       </c>
       <c r="U13" t="n">
-        <v>823.0771679069096</v>
+        <v>823.0771679069097</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9986067347816</v>
+        <v>690.9986067347817</v>
       </c>
       <c r="W13" t="n">
         <v>525.4289083702532</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1393.541623839872</v>
+        <v>708.046473681937</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.541623839872</v>
+        <v>708.046473681937</v>
       </c>
       <c r="D14" t="n">
-        <v>1156.747525609502</v>
+        <v>708.046473681937</v>
       </c>
       <c r="E14" t="n">
-        <v>893.1723132370219</v>
+        <v>444.4712613094571</v>
       </c>
       <c r="F14" t="n">
-        <v>605.1770728592355</v>
+        <v>156.4760209316707</v>
       </c>
       <c r="G14" t="n">
-        <v>310.0768013006704</v>
+        <v>156.4760209316707</v>
       </c>
       <c r="H14" t="n">
-        <v>97.38084409453401</v>
+        <v>97.38084409453398</v>
       </c>
       <c r="I14" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J14" t="n">
         <v>77.63744688178878</v>
@@ -5285,43 +5285,43 @@
         <v>550.0629334546386</v>
       </c>
       <c r="M14" t="n">
-        <v>882.1378652296542</v>
+        <v>877.4940762104995</v>
       </c>
       <c r="N14" t="n">
-        <v>1204.068941582172</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O14" t="n">
-        <v>1461.930976728513</v>
+        <v>1457.287187709359</v>
       </c>
       <c r="P14" t="n">
-        <v>1645.071464708881</v>
+        <v>1640.427675689727</v>
       </c>
       <c r="Q14" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R14" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="S14" t="n">
-        <v>1628.375958828321</v>
+        <v>1628.37595882832</v>
       </c>
       <c r="T14" t="n">
-        <v>1601.980660219656</v>
+        <v>1528.901267136798</v>
       </c>
       <c r="U14" t="n">
-        <v>1601.980660219656</v>
+        <v>1398.338606141176</v>
       </c>
       <c r="V14" t="n">
-        <v>1393.541623839872</v>
+        <v>1189.899569761391</v>
       </c>
       <c r="W14" t="n">
-        <v>1393.541623839872</v>
+        <v>959.2414470401562</v>
       </c>
       <c r="X14" t="n">
-        <v>1393.541623839872</v>
+        <v>708.046473681937</v>
       </c>
       <c r="Y14" t="n">
-        <v>1393.541623839872</v>
+        <v>708.046473681937</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>547.2093253581362</v>
+        <v>300.3839202944344</v>
       </c>
       <c r="C15" t="n">
-        <v>374.4562102799534</v>
+        <v>251.0435077481025</v>
       </c>
       <c r="D15" t="n">
-        <v>350.2806061707481</v>
+        <v>103.4552011070463</v>
       </c>
       <c r="E15" t="n">
-        <v>192.6710771736028</v>
+        <v>69.2583746417519</v>
       </c>
       <c r="F15" t="n">
-        <v>171.1279897220705</v>
+        <v>47.71528719021964</v>
       </c>
       <c r="G15" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H15" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J15" t="n">
-        <v>67.77851149822686</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="K15" t="n">
-        <v>252.0903470956158</v>
+        <v>107.0492548386647</v>
       </c>
       <c r="L15" t="n">
-        <v>560.769962512762</v>
+        <v>415.7288702558109</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7847083024319</v>
+        <v>828.7436160454808</v>
       </c>
       <c r="N15" t="n">
-        <v>1249.686456528418</v>
+        <v>1249.686456528417</v>
       </c>
       <c r="O15" t="n">
-        <v>1583.973050344103</v>
+        <v>1583.973050344102</v>
       </c>
       <c r="P15" t="n">
-        <v>1583.973050344103</v>
+        <v>1583.973050344102</v>
       </c>
       <c r="Q15" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.808712152361</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S15" t="n">
-        <v>1580.842695453515</v>
+        <v>1457.429992921664</v>
       </c>
       <c r="T15" t="n">
-        <v>1381.604144180333</v>
+        <v>1258.191441648481</v>
       </c>
       <c r="U15" t="n">
-        <v>1278.109140452041</v>
+        <v>1031.283735388338</v>
       </c>
       <c r="V15" t="n">
-        <v>1043.857896977642</v>
+        <v>885.3708923897318</v>
       </c>
       <c r="W15" t="n">
-        <v>879.681805786767</v>
+        <v>632.8564007230651</v>
       </c>
       <c r="X15" t="n">
-        <v>796.5676097241953</v>
+        <v>549.7422046604935</v>
       </c>
       <c r="Y15" t="n">
-        <v>714.2518764796966</v>
+        <v>467.4264714159949</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.3814348640261</v>
+        <v>264.3814348640267</v>
       </c>
       <c r="C16" t="n">
-        <v>218.7673162532483</v>
+        <v>218.7673162532489</v>
       </c>
       <c r="D16" t="n">
-        <v>191.6693455381099</v>
+        <v>191.6693455381105</v>
       </c>
       <c r="E16" t="n">
-        <v>166.622831733396</v>
+        <v>166.6228317333966</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4001591038282</v>
+        <v>142.4001591038288</v>
       </c>
       <c r="G16" t="n">
-        <v>96.46616437805717</v>
+        <v>96.46616437805775</v>
       </c>
       <c r="H16" t="n">
         <v>58.73479743231618</v>
       </c>
       <c r="I16" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J16" t="n">
         <v>83.5653669861473</v>
@@ -5449,37 +5449,37 @@
         <v>827.6649322725646</v>
       </c>
       <c r="O16" t="n">
-        <v>1015.918385894575</v>
+        <v>1015.918385894576</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.236616050931</v>
+        <v>1171.236616050932</v>
       </c>
       <c r="Q16" t="n">
-        <v>1232.824208242337</v>
+        <v>1232.824208242338</v>
       </c>
       <c r="R16" t="n">
-        <v>1191.829230469345</v>
+        <v>1191.829230469346</v>
       </c>
       <c r="S16" t="n">
-        <v>1094.799185130013</v>
+        <v>1094.799185130014</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5931301238796</v>
+        <v>988.5931301238805</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0771679069092</v>
+        <v>823.0771679069096</v>
       </c>
       <c r="V16" t="n">
-        <v>690.998606734781</v>
+        <v>690.9986067347816</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4289083702525</v>
+        <v>525.4289083702531</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4170049098718</v>
+        <v>420.4170049098724</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8714510096336</v>
+        <v>322.8714510096342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,73 +5489,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>963.0100530509085</v>
+        <v>963.0100530509078</v>
       </c>
       <c r="C17" t="n">
-        <v>818.1383435903141</v>
+        <v>818.1383435903131</v>
       </c>
       <c r="D17" t="n">
-        <v>683.7518492048149</v>
+        <v>683.7518492048139</v>
       </c>
       <c r="E17" t="n">
-        <v>522.5842406772055</v>
+        <v>522.5842406772045</v>
       </c>
       <c r="F17" t="n">
-        <v>336.996604144289</v>
+        <v>336.9966041442888</v>
       </c>
       <c r="G17" t="n">
-        <v>144.3039364305944</v>
+        <v>144.3039364305943</v>
       </c>
       <c r="H17" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I17" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J17" t="n">
-        <v>72.99365786263508</v>
+        <v>77.63744688178878</v>
       </c>
       <c r="K17" t="n">
-        <v>260.6481166474513</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L17" t="n">
-        <v>545.4191444354849</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4940762105006</v>
+        <v>882.1378652296543</v>
       </c>
       <c r="N17" t="n">
-        <v>1199.425152563019</v>
+        <v>1204.068941582172</v>
       </c>
       <c r="O17" t="n">
-        <v>1457.28718770936</v>
+        <v>1457.287187709359</v>
       </c>
       <c r="P17" t="n">
-        <v>1640.427675689728</v>
+        <v>1640.427675689727</v>
       </c>
       <c r="Q17" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R17" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="S17" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.624096315659</v>
+        <v>1672.624096315658</v>
       </c>
       <c r="V17" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W17" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X17" t="n">
-        <v>1289.554775391032</v>
+        <v>1289.554775391031</v>
       </c>
       <c r="Y17" t="n">
         <v>1124.782079998828</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>730.1095832790984</v>
+        <v>343.8811048002534</v>
       </c>
       <c r="C18" t="n">
-        <v>730.1095832790984</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="D18" t="n">
-        <v>582.5212766380422</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="E18" t="n">
-        <v>424.9117476408969</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="F18" t="n">
-        <v>279.9559576575137</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="G18" t="n">
-        <v>142.8435510047715</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H18" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J18" t="n">
-        <v>34.01558306932823</v>
+        <v>67.77851149822686</v>
       </c>
       <c r="K18" t="n">
-        <v>218.3274186667172</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L18" t="n">
-        <v>527.0070340838635</v>
+        <v>560.769962512762</v>
       </c>
       <c r="M18" t="n">
-        <v>940.0217798735333</v>
+        <v>973.7847083024319</v>
       </c>
       <c r="N18" t="n">
-        <v>1360.96462035647</v>
+        <v>1394.727548785369</v>
       </c>
       <c r="O18" t="n">
-        <v>1695.251214172155</v>
+        <v>1394.727548785369</v>
       </c>
       <c r="P18" t="n">
-        <v>1700.779153466411</v>
+        <v>1646.595470470471</v>
       </c>
       <c r="Q18" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R18" t="n">
-        <v>1649.511460456657</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S18" t="n">
-        <v>1649.511460456657</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="T18" t="n">
-        <v>1649.511460456657</v>
+        <v>1423.570160879177</v>
       </c>
       <c r="U18" t="n">
-        <v>1422.603754196514</v>
+        <v>1196.662454619034</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.352510722115</v>
+        <v>1175.693481959252</v>
       </c>
       <c r="W18" t="n">
-        <v>935.8380190554479</v>
+        <v>923.1789902925858</v>
       </c>
       <c r="X18" t="n">
-        <v>935.8380190554479</v>
+        <v>716.6520916981633</v>
       </c>
       <c r="Y18" t="n">
-        <v>730.1095832790984</v>
+        <v>510.9236559218138</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="C19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="D19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="E19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="F19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="G19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="K19" t="n">
-        <v>46.5748888037515</v>
+        <v>46.57488880375148</v>
       </c>
       <c r="L19" t="n">
         <v>118.4500912626264</v>
@@ -5683,40 +5683,40 @@
         <v>204.825314230866</v>
       </c>
       <c r="N19" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R19" t="n">
-        <v>395.9460936253113</v>
+        <v>231.5384133204686</v>
       </c>
       <c r="S19" t="n">
-        <v>395.9460936253113</v>
+        <v>231.5384133204686</v>
       </c>
       <c r="T19" t="n">
-        <v>192.5612929038544</v>
+        <v>227.7399621592055</v>
       </c>
       <c r="U19" t="n">
-        <v>129.452934531754</v>
+        <v>164.6316037871052</v>
       </c>
       <c r="V19" t="n">
-        <v>99.7819772044964</v>
+        <v>99.78197720449626</v>
       </c>
       <c r="W19" t="n">
-        <v>36.61988268483844</v>
+        <v>36.61988268483835</v>
       </c>
       <c r="X19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>963.0100530509083</v>
+        <v>963.010053050908</v>
       </c>
       <c r="C20" t="n">
-        <v>818.1383435903139</v>
+        <v>818.1383435903134</v>
       </c>
       <c r="D20" t="n">
-        <v>683.7518492048147</v>
+        <v>683.7518492048142</v>
       </c>
       <c r="E20" t="n">
-        <v>522.5842406772052</v>
+        <v>522.5842406772049</v>
       </c>
       <c r="F20" t="n">
-        <v>336.9966041442894</v>
+        <v>336.996604144289</v>
       </c>
       <c r="G20" t="n">
-        <v>144.3039364305944</v>
+        <v>144.3039364305949</v>
       </c>
       <c r="H20" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I20" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J20" t="n">
-        <v>72.99365786263508</v>
+        <v>77.63744688178878</v>
       </c>
       <c r="K20" t="n">
-        <v>260.6481166474513</v>
+        <v>265.291905666605</v>
       </c>
       <c r="L20" t="n">
-        <v>545.4191444354849</v>
+        <v>550.0629334546386</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4940762105006</v>
+        <v>882.1378652296543</v>
       </c>
       <c r="N20" t="n">
-        <v>1199.425152563019</v>
+        <v>1204.068941582172</v>
       </c>
       <c r="O20" t="n">
-        <v>1457.28718770936</v>
+        <v>1457.287187709359</v>
       </c>
       <c r="P20" t="n">
-        <v>1640.427675689728</v>
+        <v>1640.427675689727</v>
       </c>
       <c r="Q20" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R20" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.624096315659</v>
+        <v>1672.624096315658</v>
       </c>
       <c r="V20" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W20" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X20" t="n">
         <v>1289.554775391032</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>980.4352488726636</v>
+        <v>415.9615429669002</v>
       </c>
       <c r="C21" t="n">
-        <v>807.6821337944807</v>
+        <v>243.2084278887174</v>
       </c>
       <c r="D21" t="n">
-        <v>660.0938271534246</v>
+        <v>243.2084278887174</v>
       </c>
       <c r="E21" t="n">
-        <v>502.4842981562794</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="F21" t="n">
-        <v>357.5285081728962</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="G21" t="n">
-        <v>220.4161015201539</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5881335847106</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J21" t="n">
         <v>67.77851149822686</v>
       </c>
       <c r="K21" t="n">
-        <v>252.0903470956158</v>
+        <v>252.0903470956159</v>
       </c>
       <c r="L21" t="n">
         <v>560.769962512762</v>
       </c>
       <c r="M21" t="n">
-        <v>576.8756943603787</v>
+        <v>945.5497191677891</v>
       </c>
       <c r="N21" t="n">
-        <v>997.8185348433155</v>
+        <v>1366.492559650726</v>
       </c>
       <c r="O21" t="n">
-        <v>1332.105128659</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="P21" t="n">
-        <v>1583.973050344103</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="Q21" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R21" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.779153466411</v>
+        <v>1535.400434235714</v>
       </c>
       <c r="T21" t="n">
-        <v>1700.779153466411</v>
+        <v>1336.161882962532</v>
       </c>
       <c r="U21" t="n">
-        <v>1699.69175358299</v>
+        <v>1109.254176702389</v>
       </c>
       <c r="V21" t="n">
-        <v>1691.260816485312</v>
+        <v>875.0029332279894</v>
       </c>
       <c r="W21" t="n">
-        <v>1559.733134364996</v>
+        <v>622.4884415613227</v>
       </c>
       <c r="X21" t="n">
-        <v>1353.206235770573</v>
+        <v>415.9615429669002</v>
       </c>
       <c r="Y21" t="n">
-        <v>1147.477799994224</v>
+        <v>415.9615429669002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="C22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="D22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="E22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="F22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="G22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="K22" t="n">
-        <v>46.5748888037515</v>
+        <v>46.57488880375148</v>
       </c>
       <c r="L22" t="n">
         <v>118.4500912626264</v>
@@ -5920,40 +5920,40 @@
         <v>204.825314230866</v>
       </c>
       <c r="N22" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R22" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="S22" t="n">
-        <v>196.3597440651175</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="T22" t="n">
-        <v>192.5612929038544</v>
+        <v>392.1476424640483</v>
       </c>
       <c r="U22" t="n">
-        <v>129.452934531754</v>
+        <v>329.039284091948</v>
       </c>
       <c r="V22" t="n">
-        <v>99.7819772044964</v>
+        <v>299.3683267646905</v>
       </c>
       <c r="W22" t="n">
-        <v>36.61988268483844</v>
+        <v>236.2062322450326</v>
       </c>
       <c r="X22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>963.0100530509079</v>
+        <v>963.0100530509077</v>
       </c>
       <c r="C23" t="n">
-        <v>818.1383435903135</v>
+        <v>818.1383435903133</v>
       </c>
       <c r="D23" t="n">
-        <v>683.7518492048143</v>
+        <v>683.7518492048141</v>
       </c>
       <c r="E23" t="n">
-        <v>522.5842406772049</v>
+        <v>522.5842406772048</v>
       </c>
       <c r="F23" t="n">
         <v>336.996604144289</v>
@@ -5981,55 +5981,55 @@
         <v>144.3039364305944</v>
       </c>
       <c r="H23" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I23" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J23" t="n">
-        <v>72.99365786263508</v>
+        <v>77.63744688178878</v>
       </c>
       <c r="K23" t="n">
-        <v>260.6481166474513</v>
+        <v>260.6481166474503</v>
       </c>
       <c r="L23" t="n">
-        <v>545.4191444354849</v>
+        <v>545.4191444354839</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4940762105006</v>
+        <v>877.4940762104995</v>
       </c>
       <c r="N23" t="n">
-        <v>1199.425152563019</v>
+        <v>1199.425152563018</v>
       </c>
       <c r="O23" t="n">
-        <v>1457.28718770936</v>
+        <v>1457.287187709359</v>
       </c>
       <c r="P23" t="n">
-        <v>1640.427675689728</v>
+        <v>1640.427675689727</v>
       </c>
       <c r="Q23" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R23" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="S23" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="T23" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.624096315659</v>
+        <v>1672.624096315658</v>
       </c>
       <c r="V23" t="n">
-        <v>1566.592663780745</v>
+        <v>1566.592663780744</v>
       </c>
       <c r="W23" t="n">
-        <v>1438.342144904381</v>
+        <v>1438.34214490438</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.554775391032</v>
+        <v>1289.554775391031</v>
       </c>
       <c r="Y23" t="n">
         <v>1124.782079998828</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>511.9665337857125</v>
+        <v>596.0074081811932</v>
       </c>
       <c r="C24" t="n">
-        <v>339.2134187075297</v>
+        <v>423.2542931030104</v>
       </c>
       <c r="D24" t="n">
-        <v>191.6251120664735</v>
+        <v>275.6659864619543</v>
       </c>
       <c r="E24" t="n">
-        <v>34.01558306932823</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="F24" t="n">
-        <v>34.01558306932823</v>
+        <v>171.1279897220705</v>
       </c>
       <c r="G24" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H24" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J24" t="n">
-        <v>67.77851149822686</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="K24" t="n">
-        <v>252.0903470956158</v>
+        <v>218.3274186667172</v>
       </c>
       <c r="L24" t="n">
-        <v>280.6670516930171</v>
+        <v>527.0070340838635</v>
       </c>
       <c r="M24" t="n">
-        <v>693.681797482687</v>
+        <v>940.0217798735334</v>
       </c>
       <c r="N24" t="n">
-        <v>1114.624637965624</v>
+        <v>1360.96462035647</v>
       </c>
       <c r="O24" t="n">
-        <v>1448.911231781309</v>
+        <v>1360.96462035647</v>
       </c>
       <c r="P24" t="n">
-        <v>1700.779153466411</v>
+        <v>1583.973050344102</v>
       </c>
       <c r="Q24" t="n">
-        <v>1700.779153466411</v>
+        <v>1700.77915346641</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.808712152361</v>
+        <v>1622.80871215236</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.808712152361</v>
+        <v>1457.429992921664</v>
       </c>
       <c r="T24" t="n">
-        <v>1423.570160879178</v>
+        <v>1457.429992921664</v>
       </c>
       <c r="U24" t="n">
-        <v>1196.662454619035</v>
+        <v>1230.522286661521</v>
       </c>
       <c r="V24" t="n">
-        <v>1176.736359823151</v>
+        <v>1222.091349563843</v>
       </c>
       <c r="W24" t="n">
-        <v>924.2218681564846</v>
+        <v>969.5768578971762</v>
       </c>
       <c r="X24" t="n">
-        <v>717.6949695620621</v>
+        <v>763.0499593027537</v>
       </c>
       <c r="Y24" t="n">
-        <v>511.9665337857125</v>
+        <v>763.0499593027537</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="C25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="D25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="E25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="F25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="G25" t="n">
-        <v>106.872440364143</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="H25" t="n">
-        <v>106.872440364143</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="I25" t="n">
-        <v>106.872440364143</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="J25" t="n">
-        <v>34.01558306932823</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="K25" t="n">
-        <v>46.5748888037515</v>
+        <v>46.57488880375148</v>
       </c>
       <c r="L25" t="n">
         <v>118.4500912626264</v>
@@ -6157,40 +6157,40 @@
         <v>204.825314230866</v>
       </c>
       <c r="N25" t="n">
-        <v>294.2879893498773</v>
+        <v>294.2879893498774</v>
       </c>
       <c r="O25" t="n">
-        <v>361.5846532204217</v>
+        <v>361.5846532204218</v>
       </c>
       <c r="P25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="R25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="S25" t="n">
-        <v>395.9460936253113</v>
+        <v>395.9460936253114</v>
       </c>
       <c r="T25" t="n">
-        <v>392.1476424640482</v>
+        <v>392.1476424640483</v>
       </c>
       <c r="U25" t="n">
-        <v>329.0392840919478</v>
+        <v>329.039284091948</v>
       </c>
       <c r="V25" t="n">
-        <v>299.3683267646903</v>
+        <v>99.78197720449626</v>
       </c>
       <c r="W25" t="n">
-        <v>236.2062322450323</v>
+        <v>36.61988268483835</v>
       </c>
       <c r="X25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
       <c r="Y25" t="n">
-        <v>233.6019326295221</v>
+        <v>34.01558306932821</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>1296.736757508745</v>
       </c>
       <c r="D26" t="n">
-        <v>1080.031891782319</v>
+        <v>1080.031891782318</v>
       </c>
       <c r="E26" t="n">
-        <v>836.545911913782</v>
+        <v>836.5459119137818</v>
       </c>
       <c r="F26" t="n">
-        <v>568.639904039939</v>
+        <v>568.6399040399388</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6288649853169</v>
+        <v>293.6288649853177</v>
       </c>
       <c r="H26" t="n">
         <v>101.0221402831235</v>
       </c>
       <c r="I26" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J26" t="n">
-        <v>242.0142221029035</v>
+        <v>242.0142221029033</v>
       </c>
       <c r="K26" t="n">
-        <v>570.3149274163018</v>
+        <v>570.3149274163015</v>
       </c>
       <c r="L26" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329175</v>
       </c>
       <c r="M26" t="n">
         <v>1468.453380036515</v>
@@ -6251,25 +6251,25 @@
         <v>2887.305588093057</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.991625958911</v>
+        <v>2834.99162595891</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.606166771333</v>
+        <v>2755.606166771332</v>
       </c>
       <c r="U26" t="n">
         <v>2645.132738279653</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.782934403812</v>
+        <v>2456.782934403811</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.214044186521</v>
+        <v>2246.21404418652</v>
       </c>
       <c r="X26" t="n">
-        <v>2015.108303332245</v>
+        <v>2015.108303332244</v>
       </c>
       <c r="Y26" t="n">
-        <v>1768.017236599114</v>
+        <v>1768.017236599113</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>769.2358774426511</v>
+        <v>547.7635010928066</v>
       </c>
       <c r="C27" t="n">
-        <v>596.4827623644683</v>
+        <v>375.0103860146237</v>
       </c>
       <c r="D27" t="n">
-        <v>448.8944557234121</v>
+        <v>360.3114307423896</v>
       </c>
       <c r="E27" t="n">
-        <v>291.2849267262668</v>
+        <v>202.7019017452443</v>
       </c>
       <c r="F27" t="n">
-        <v>289.8310717786779</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="G27" t="n">
-        <v>152.7186651259356</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="H27" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="I27" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J27" t="n">
-        <v>91.50904019075978</v>
+        <v>91.50904019075981</v>
       </c>
       <c r="K27" t="n">
         <v>275.8208757881488</v>
@@ -6327,28 +6327,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S27" t="n">
-        <v>2117.943820573581</v>
+        <v>1896.471444223736</v>
       </c>
       <c r="T27" t="n">
-        <v>2062.207204336193</v>
+        <v>1697.232892950554</v>
       </c>
       <c r="U27" t="n">
-        <v>1835.29949807605</v>
+        <v>1470.325186690411</v>
       </c>
       <c r="V27" t="n">
-        <v>1601.048254601651</v>
+        <v>1236.073943216011</v>
       </c>
       <c r="W27" t="n">
-        <v>1348.533762934984</v>
+        <v>983.5594515493448</v>
       </c>
       <c r="X27" t="n">
-        <v>1142.006864340561</v>
+        <v>777.0325529549223</v>
       </c>
       <c r="Y27" t="n">
-        <v>936.2784285642116</v>
+        <v>714.806052214367</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.4873360289562</v>
+        <v>147.487336028956</v>
       </c>
       <c r="C28" t="n">
-        <v>121.9624499221217</v>
+        <v>121.9624499221216</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9537117109267</v>
+        <v>114.9537117109266</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9964304101561</v>
+        <v>109.996430410156</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8629902845316</v>
+        <v>105.8629902845315</v>
       </c>
       <c r="G28" t="n">
-        <v>80.01822806270397</v>
+        <v>80.01822806270393</v>
       </c>
       <c r="H28" t="n">
-        <v>62.37609362090576</v>
+        <v>62.37609362090574</v>
       </c>
       <c r="I28" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="J28" t="n">
-        <v>57.74611176186114</v>
+        <v>57.74611176186115</v>
       </c>
       <c r="K28" t="n">
-        <v>210.9516640248663</v>
+        <v>210.9516640248664</v>
       </c>
       <c r="L28" t="n">
-        <v>282.8268664837412</v>
+        <v>423.4731130123233</v>
       </c>
       <c r="M28" t="n">
         <v>509.8483359805628</v>
       </c>
       <c r="N28" t="n">
-        <v>599.3110110995741</v>
+        <v>611.5456170992404</v>
       </c>
       <c r="O28" t="n">
-        <v>678.8422809697854</v>
+        <v>819.4885274983668</v>
       </c>
       <c r="P28" t="n">
-        <v>853.8499679032569</v>
+        <v>853.8499679032565</v>
       </c>
       <c r="Q28" t="n">
-        <v>935.1270168717778</v>
+        <v>935.1270168717774</v>
       </c>
       <c r="R28" t="n">
-        <v>914.2212716027292</v>
+        <v>914.2212716027288</v>
       </c>
       <c r="S28" t="n">
-        <v>837.2804587673403</v>
+        <v>837.28045876734</v>
       </c>
       <c r="T28" t="n">
-        <v>751.16363626515</v>
+        <v>751.1636362651496</v>
       </c>
       <c r="U28" t="n">
-        <v>605.7369065521225</v>
+        <v>605.7369065521222</v>
       </c>
       <c r="V28" t="n">
-        <v>493.7475778839377</v>
+        <v>493.7475778839374</v>
       </c>
       <c r="W28" t="n">
-        <v>348.2671120233526</v>
+        <v>348.2671120233523</v>
       </c>
       <c r="X28" t="n">
-        <v>263.3444410669152</v>
+        <v>263.344441066915</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8881196706203</v>
+        <v>185.8881196706201</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.926838310266</v>
+        <v>1523.926838310265</v>
       </c>
       <c r="C29" t="n">
         <v>1296.736757508744</v>
       </c>
       <c r="D29" t="n">
-        <v>1080.031891782318</v>
+        <v>1080.031891782317</v>
       </c>
       <c r="E29" t="n">
-        <v>836.5459119137815</v>
+        <v>836.5459119137807</v>
       </c>
       <c r="F29" t="n">
-        <v>568.6399040399385</v>
+        <v>568.6399040399376</v>
       </c>
       <c r="G29" t="n">
         <v>293.6288649853168</v>
       </c>
       <c r="H29" t="n">
-        <v>101.0221402831236</v>
+        <v>101.0221402831235</v>
       </c>
       <c r="I29" t="n">
         <v>57.74611176186114</v>
       </c>
       <c r="J29" t="n">
-        <v>242.0142221029036</v>
+        <v>242.0142221029037</v>
       </c>
       <c r="K29" t="n">
-        <v>570.3149274163018</v>
+        <v>570.3149274163019</v>
       </c>
       <c r="L29" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329175</v>
       </c>
       <c r="M29" t="n">
         <v>1468.453380036515</v>
@@ -6494,19 +6494,19 @@
         <v>2755.606166771332</v>
       </c>
       <c r="U29" t="n">
-        <v>2645.132738279653</v>
+        <v>2645.132738279652</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.782934403811</v>
+        <v>2456.78293440381</v>
       </c>
       <c r="W29" t="n">
-        <v>2246.21404418652</v>
+        <v>2246.214044186519</v>
       </c>
       <c r="X29" t="n">
         <v>2015.108303332244</v>
       </c>
       <c r="Y29" t="n">
-        <v>1768.017236599113</v>
+        <v>1768.017236599112</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.6528524616285</v>
+        <v>547.7635010928062</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8997373834457</v>
+        <v>375.0103860146234</v>
       </c>
       <c r="D30" t="n">
-        <v>360.3114307423896</v>
+        <v>227.4220793735673</v>
       </c>
       <c r="E30" t="n">
-        <v>202.7019017452443</v>
+        <v>213.3144854122162</v>
       </c>
       <c r="F30" t="n">
-        <v>57.74611176186114</v>
+        <v>68.3586954288331</v>
       </c>
       <c r="G30" t="n">
         <v>57.74611176186114</v>
@@ -6564,28 +6564,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.943820573581</v>
+        <v>2039.97337925953</v>
       </c>
       <c r="T30" t="n">
-        <v>1918.705269300399</v>
+        <v>1840.734827986348</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.716473095027</v>
+        <v>1613.827121726205</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.465229620628</v>
+        <v>1379.575878251806</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.950737953961</v>
+        <v>1127.061386585139</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.423839359539</v>
+        <v>920.5344879907162</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.695403583189</v>
+        <v>714.8060522143667</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.4873360289562</v>
+        <v>147.487336028956</v>
       </c>
       <c r="C31" t="n">
-        <v>121.9624499221217</v>
+        <v>121.9624499221216</v>
       </c>
       <c r="D31" t="n">
-        <v>114.9537117109267</v>
+        <v>114.9537117109266</v>
       </c>
       <c r="E31" t="n">
-        <v>109.9964304101561</v>
+        <v>109.996430410156</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8629902845316</v>
+        <v>105.8629902845315</v>
       </c>
       <c r="G31" t="n">
-        <v>80.01822806270397</v>
+        <v>80.01822806270391</v>
       </c>
       <c r="H31" t="n">
-        <v>62.37609362090576</v>
+        <v>62.37609362090573</v>
       </c>
       <c r="I31" t="n">
         <v>57.74611176186114</v>
@@ -6625,46 +6625,46 @@
         <v>139.5446581902184</v>
       </c>
       <c r="L31" t="n">
-        <v>211.4198606490933</v>
+        <v>211.4198606490934</v>
       </c>
       <c r="M31" t="n">
         <v>438.4413301459148</v>
       </c>
       <c r="N31" t="n">
-        <v>668.5502517935081</v>
+        <v>527.9040052649261</v>
       </c>
       <c r="O31" t="n">
-        <v>760.1193299383062</v>
+        <v>735.8469156640525</v>
       </c>
       <c r="P31" t="n">
-        <v>935.1270168717778</v>
+        <v>910.854602597524</v>
       </c>
       <c r="Q31" t="n">
-        <v>935.1270168717778</v>
+        <v>935.1270168717774</v>
       </c>
       <c r="R31" t="n">
-        <v>914.2212716027292</v>
+        <v>914.2212716027288</v>
       </c>
       <c r="S31" t="n">
-        <v>837.2804587673403</v>
+        <v>837.28045876734</v>
       </c>
       <c r="T31" t="n">
-        <v>751.16363626515</v>
+        <v>751.1636362651496</v>
       </c>
       <c r="U31" t="n">
-        <v>605.7369065521225</v>
+        <v>605.7369065521222</v>
       </c>
       <c r="V31" t="n">
-        <v>493.7475778839377</v>
+        <v>493.7475778839374</v>
       </c>
       <c r="W31" t="n">
-        <v>348.2671120233526</v>
+        <v>348.2671120233523</v>
       </c>
       <c r="X31" t="n">
-        <v>263.3444410669152</v>
+        <v>263.344441066915</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.8881196706203</v>
+        <v>185.8881196706201</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.926838310266</v>
+        <v>1523.926838310265</v>
       </c>
       <c r="C32" t="n">
         <v>1296.736757508744</v>
       </c>
       <c r="D32" t="n">
-        <v>1080.031891782318</v>
+        <v>1080.031891782317</v>
       </c>
       <c r="E32" t="n">
-        <v>836.5459119137815</v>
+        <v>836.5459119137809</v>
       </c>
       <c r="F32" t="n">
-        <v>568.6399040399385</v>
+        <v>568.6399040399378</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6288649853167</v>
+        <v>293.6288649853169</v>
       </c>
       <c r="H32" t="n">
         <v>101.0221402831236</v>
@@ -6704,7 +6704,7 @@
         <v>570.3149274163018</v>
       </c>
       <c r="L32" t="n">
-        <v>995.7322017329172</v>
+        <v>995.7322017329174</v>
       </c>
       <c r="M32" t="n">
         <v>1468.453380036515</v>
@@ -6725,19 +6725,19 @@
         <v>2887.305588093057</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.99162595891</v>
+        <v>2834.991625958909</v>
       </c>
       <c r="T32" t="n">
         <v>2755.606166771332</v>
       </c>
       <c r="U32" t="n">
-        <v>2645.132738279653</v>
+        <v>2645.132738279652</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.782934403811</v>
+        <v>2456.78293440381</v>
       </c>
       <c r="W32" t="n">
-        <v>2246.21404418652</v>
+        <v>2246.214044186519</v>
       </c>
       <c r="X32" t="n">
         <v>2015.108303332244</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>680.6528524616285</v>
+        <v>674.2633240785766</v>
       </c>
       <c r="C33" t="n">
-        <v>507.8997373834457</v>
+        <v>501.5102090003938</v>
       </c>
       <c r="D33" t="n">
-        <v>360.3114307423896</v>
+        <v>353.9219023593377</v>
       </c>
       <c r="E33" t="n">
-        <v>202.7019017452443</v>
+        <v>196.3123733621924</v>
       </c>
       <c r="F33" t="n">
-        <v>57.74611176186114</v>
+        <v>194.8585184146035</v>
       </c>
       <c r="G33" t="n">
         <v>57.74611176186114</v>
@@ -6801,28 +6801,28 @@
         <v>2139.820604768483</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.820604768483</v>
+        <v>2061.850163454432</v>
       </c>
       <c r="S33" t="n">
-        <v>2029.360795592559</v>
+        <v>2039.97337925953</v>
       </c>
       <c r="T33" t="n">
-        <v>1973.62417935517</v>
+        <v>1840.734827986348</v>
       </c>
       <c r="U33" t="n">
-        <v>1746.716473095027</v>
+        <v>1613.827121726205</v>
       </c>
       <c r="V33" t="n">
-        <v>1512.465229620628</v>
+        <v>1506.075701237576</v>
       </c>
       <c r="W33" t="n">
-        <v>1259.950737953961</v>
+        <v>1253.561209570909</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.423839359539</v>
+        <v>1047.034310976486</v>
       </c>
       <c r="Y33" t="n">
-        <v>847.695403583189</v>
+        <v>841.3058752001371</v>
       </c>
     </row>
     <row r="34">
@@ -6856,22 +6856,22 @@
         <v>57.74611176186114</v>
       </c>
       <c r="J34" t="n">
-        <v>57.74611176186114</v>
+        <v>69.98071776152801</v>
       </c>
       <c r="K34" t="n">
-        <v>210.9516640248663</v>
+        <v>82.54002349595129</v>
       </c>
       <c r="L34" t="n">
-        <v>423.4731130123232</v>
+        <v>154.4152259548262</v>
       </c>
       <c r="M34" t="n">
-        <v>650.4945825091446</v>
+        <v>381.4366954516477</v>
       </c>
       <c r="N34" t="n">
-        <v>752.191863627823</v>
+        <v>611.545617099241</v>
       </c>
       <c r="O34" t="n">
-        <v>819.4885274983674</v>
+        <v>678.8422809697854</v>
       </c>
       <c r="P34" t="n">
         <v>853.8499679032569</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4267187649572</v>
+        <v>965.426718764958</v>
       </c>
       <c r="C35" t="n">
-        <v>820.1680268860998</v>
+        <v>820.1680268861006</v>
       </c>
       <c r="D35" t="n">
-        <v>685.3945500823378</v>
+        <v>685.3945500823385</v>
       </c>
       <c r="E35" t="n">
-        <v>523.8399591364655</v>
+        <v>523.8399591364662</v>
       </c>
       <c r="F35" t="n">
-        <v>337.8653401852866</v>
+        <v>337.8653401852873</v>
       </c>
       <c r="G35" t="n">
         <v>144.7856900533299</v>
       </c>
       <c r="H35" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="I35" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="J35" t="n">
-        <v>77.7322180862613</v>
+        <v>77.73221808626134</v>
       </c>
       <c r="K35" t="n">
-        <v>265.3866768710775</v>
+        <v>265.3866768710776</v>
       </c>
       <c r="L35" t="n">
-        <v>550.1577046591111</v>
+        <v>550.1577046591112</v>
       </c>
       <c r="M35" t="n">
-        <v>882.2326364341268</v>
+        <v>882.2326364341272</v>
       </c>
       <c r="N35" t="n">
         <v>1204.163712786645</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.025747932986</v>
+        <v>1462.025747932987</v>
       </c>
       <c r="P35" t="n">
-        <v>1645.166235913354</v>
+        <v>1645.166235913355</v>
       </c>
       <c r="Q35" t="n">
-        <v>1705.517713690037</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="R35" t="n">
-        <v>1705.517713690037</v>
+        <v>1705.517713690038</v>
       </c>
       <c r="S35" t="n">
         <v>1705.517713690038</v>
@@ -6971,16 +6971,16 @@
         <v>1676.975674121023</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.557259167845</v>
+        <v>1570.557259167846</v>
       </c>
       <c r="W35" t="n">
-        <v>1441.919757873218</v>
+        <v>1441.919757873219</v>
       </c>
       <c r="X35" t="n">
         <v>1292.745405941607</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.58572813114</v>
+        <v>1127.585728131141</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>512.061304990185</v>
+        <v>290.5266288503001</v>
       </c>
       <c r="C36" t="n">
-        <v>339.3081899120022</v>
+        <v>290.5266288503001</v>
       </c>
       <c r="D36" t="n">
-        <v>191.7198832709461</v>
+        <v>142.938322209244</v>
       </c>
       <c r="E36" t="n">
-        <v>34.11035427380075</v>
+        <v>142.938322209244</v>
       </c>
       <c r="F36" t="n">
-        <v>34.11035427380075</v>
+        <v>142.938322209244</v>
       </c>
       <c r="G36" t="n">
-        <v>34.11035427380075</v>
+        <v>142.938322209244</v>
       </c>
       <c r="H36" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="I36" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="J36" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="K36" t="n">
-        <v>34.11035427380075</v>
+        <v>218.4221898711898</v>
       </c>
       <c r="L36" t="n">
-        <v>167.4267151389877</v>
+        <v>527.101805288336</v>
       </c>
       <c r="M36" t="n">
-        <v>580.4414609286575</v>
+        <v>940.1165510780058</v>
       </c>
       <c r="N36" t="n">
         <v>1002.557095066942</v>
@@ -7032,34 +7032,34 @@
         <v>1336.843688882627</v>
       </c>
       <c r="P36" t="n">
-        <v>1588.711610567729</v>
+        <v>1588.71161056773</v>
       </c>
       <c r="Q36" t="n">
         <v>1705.517713690038</v>
       </c>
       <c r="R36" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375987</v>
       </c>
       <c r="S36" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375987</v>
       </c>
       <c r="T36" t="n">
-        <v>1579.599307925268</v>
+        <v>1428.308721102805</v>
       </c>
       <c r="U36" t="n">
-        <v>1578.124925623584</v>
+        <v>1201.401014842662</v>
       </c>
       <c r="V36" t="n">
-        <v>1343.873682149184</v>
+        <v>1122.339006009299</v>
       </c>
       <c r="W36" t="n">
-        <v>1091.359190482518</v>
+        <v>869.8245143426326</v>
       </c>
       <c r="X36" t="n">
-        <v>884.832291888095</v>
+        <v>663.2976157482101</v>
       </c>
       <c r="Y36" t="n">
-        <v>679.1038561117455</v>
+        <v>457.5691799718606</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.62102752079</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="C37" t="n">
-        <v>184.62102752079</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="D37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="E37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="F37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="G37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="H37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="I37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="J37" t="n">
-        <v>34.11035427380075</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="K37" t="n">
-        <v>46.66966000822402</v>
+        <v>46.66966000822404</v>
       </c>
       <c r="L37" t="n">
         <v>118.544862467099</v>
@@ -7105,7 +7105,7 @@
         <v>204.9200854353385</v>
       </c>
       <c r="N37" t="n">
-        <v>294.3827605543498</v>
+        <v>294.3827605543499</v>
       </c>
       <c r="O37" t="n">
         <v>361.6794244248943</v>
@@ -7123,22 +7123,22 @@
         <v>396.0408648297839</v>
       </c>
       <c r="T37" t="n">
-        <v>391.8554312502579</v>
+        <v>194.2039937813784</v>
       </c>
       <c r="U37" t="n">
-        <v>328.3600904598946</v>
+        <v>130.7086529910151</v>
       </c>
       <c r="V37" t="n">
-        <v>298.3021507143741</v>
+        <v>100.6507132454947</v>
       </c>
       <c r="W37" t="n">
-        <v>234.7530737764533</v>
+        <v>37.10163630757384</v>
       </c>
       <c r="X37" t="n">
-        <v>184.62102752079</v>
+        <v>34.11035427380077</v>
       </c>
       <c r="Y37" t="n">
-        <v>184.62102752079</v>
+        <v>34.11035427380077</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4267187649575</v>
+        <v>965.4267187649571</v>
       </c>
       <c r="C38" t="n">
-        <v>820.1680268861003</v>
+        <v>820.1680268860998</v>
       </c>
       <c r="D38" t="n">
-        <v>685.3945500823381</v>
+        <v>685.3945500823377</v>
       </c>
       <c r="E38" t="n">
-        <v>523.8399591364657</v>
+        <v>523.8399591364654</v>
       </c>
       <c r="F38" t="n">
-        <v>337.8653401852869</v>
+        <v>337.8653401852866</v>
       </c>
       <c r="G38" t="n">
         <v>144.7856900533299</v>
@@ -7172,10 +7172,10 @@
         <v>34.11035427380075</v>
       </c>
       <c r="J38" t="n">
-        <v>77.73221808626135</v>
+        <v>77.73221808626124</v>
       </c>
       <c r="K38" t="n">
-        <v>265.3866768710776</v>
+        <v>265.3866768710775</v>
       </c>
       <c r="L38" t="n">
         <v>550.1577046591112</v>
@@ -7211,13 +7211,13 @@
         <v>1570.557259167845</v>
       </c>
       <c r="W38" t="n">
-        <v>1441.919757873219</v>
+        <v>1441.919757873218</v>
       </c>
       <c r="X38" t="n">
         <v>1292.745405941607</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.585728131141</v>
+        <v>1127.58572813114</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>657.0170949735682</v>
+        <v>401.1204347133747</v>
       </c>
       <c r="C39" t="n">
-        <v>484.2639798953854</v>
+        <v>401.1204347133747</v>
       </c>
       <c r="D39" t="n">
-        <v>336.6756732543292</v>
+        <v>253.5321280723186</v>
       </c>
       <c r="E39" t="n">
-        <v>179.0661442571839</v>
+        <v>95.92259907517328</v>
       </c>
       <c r="F39" t="n">
-        <v>34.11035427380075</v>
+        <v>95.92259907517328</v>
       </c>
       <c r="G39" t="n">
-        <v>34.11035427380075</v>
+        <v>95.92259907517328</v>
       </c>
       <c r="H39" t="n">
         <v>34.11035427380075</v>
@@ -7251,52 +7251,52 @@
         <v>34.11035427380075</v>
       </c>
       <c r="J39" t="n">
-        <v>67.87328270269938</v>
+        <v>34.11035427380075</v>
       </c>
       <c r="K39" t="n">
-        <v>252.1851183000884</v>
+        <v>218.4221898711897</v>
       </c>
       <c r="L39" t="n">
-        <v>560.8647337172346</v>
+        <v>218.4221898711897</v>
       </c>
       <c r="M39" t="n">
-        <v>973.8794795069044</v>
+        <v>631.4369356608597</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.425016752045</v>
+        <v>1053.552569799144</v>
       </c>
       <c r="O39" t="n">
-        <v>1588.711610567729</v>
+        <v>1387.839163614829</v>
       </c>
       <c r="P39" t="n">
-        <v>1588.711610567729</v>
+        <v>1639.707085299932</v>
       </c>
       <c r="Q39" t="n">
         <v>1705.517713690038</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.517713690038</v>
+        <v>1627.547272375987</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.517713690038</v>
+        <v>1462.168553145291</v>
       </c>
       <c r="T39" t="n">
-        <v>1705.517713690038</v>
+        <v>1262.930001872108</v>
       </c>
       <c r="U39" t="n">
-        <v>1517.352279830617</v>
+        <v>1036.022295611965</v>
       </c>
       <c r="V39" t="n">
-        <v>1283.101036356218</v>
+        <v>1027.204376096024</v>
       </c>
       <c r="W39" t="n">
-        <v>1030.586544689551</v>
+        <v>774.6898844293577</v>
       </c>
       <c r="X39" t="n">
-        <v>824.0596460951286</v>
+        <v>568.1629858349352</v>
       </c>
       <c r="Y39" t="n">
-        <v>824.0596460951286</v>
+        <v>568.1629858349352</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>34.11035427380075</v>
       </c>
       <c r="K40" t="n">
-        <v>46.66966000822402</v>
+        <v>46.66966000822403</v>
       </c>
       <c r="L40" t="n">
         <v>118.544862467099</v>
@@ -7342,7 +7342,7 @@
         <v>204.9200854353385</v>
       </c>
       <c r="N40" t="n">
-        <v>294.3827605543498</v>
+        <v>294.3827605543499</v>
       </c>
       <c r="O40" t="n">
         <v>361.6794244248943</v>
@@ -7354,28 +7354,28 @@
         <v>396.0408648297839</v>
       </c>
       <c r="R40" t="n">
-        <v>396.0408648297839</v>
+        <v>231.6331845249411</v>
       </c>
       <c r="S40" t="n">
-        <v>396.0408648297839</v>
+        <v>231.6331845249411</v>
       </c>
       <c r="T40" t="n">
-        <v>391.8554312502579</v>
+        <v>227.4477509454151</v>
       </c>
       <c r="U40" t="n">
-        <v>328.3600904598946</v>
+        <v>163.9524101550519</v>
       </c>
       <c r="V40" t="n">
-        <v>298.3021507143741</v>
+        <v>133.8944704095314</v>
       </c>
       <c r="W40" t="n">
-        <v>37.10163630757383</v>
+        <v>70.34539347161058</v>
       </c>
       <c r="X40" t="n">
-        <v>34.11035427380075</v>
+        <v>67.3541114378375</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.11035427380075</v>
+        <v>67.3541114378375</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3257901718239</v>
+        <v>981.3257901718241</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5211685578802</v>
+        <v>833.5211685578804</v>
       </c>
       <c r="D41" t="n">
-        <v>696.2017620190314</v>
+        <v>696.201762019032</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1012413380728</v>
+        <v>532.1012413380729</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5806926518077</v>
+        <v>343.5806926518078</v>
       </c>
       <c r="G41" t="n">
         <v>147.9551127847639</v>
@@ -7406,34 +7406,34 @@
         <v>34.73384727014845</v>
       </c>
       <c r="I41" t="n">
-        <v>38.75222982911834</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="J41" t="n">
-        <v>82.3740936415789</v>
+        <v>78.35571108260902</v>
       </c>
       <c r="K41" t="n">
-        <v>270.0285524263951</v>
+        <v>266.0101698674252</v>
       </c>
       <c r="L41" t="n">
-        <v>554.7995802144287</v>
+        <v>550.7811976554589</v>
       </c>
       <c r="M41" t="n">
-        <v>886.8745119894444</v>
+        <v>913.4072862515116</v>
       </c>
       <c r="N41" t="n">
-        <v>1208.805588341962</v>
+        <v>1235.33836260403</v>
       </c>
       <c r="O41" t="n">
-        <v>1466.667623488304</v>
+        <v>1493.200397750371</v>
       </c>
       <c r="P41" t="n">
-        <v>1649.808111468672</v>
+        <v>1676.340885730739</v>
       </c>
       <c r="Q41" t="n">
-        <v>1710.159589245355</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.159589245355</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="S41" t="n">
         <v>1736.692363507422</v>
@@ -7445,7 +7445,7 @@
         <v>1705.604394203321</v>
       </c>
       <c r="V41" t="n">
-        <v>1596.640049515057</v>
+        <v>1596.640049515058</v>
       </c>
       <c r="W41" t="n">
         <v>1465.456618485344</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>367.4144271906947</v>
+        <v>474.4115729034193</v>
       </c>
       <c r="C42" t="n">
-        <v>367.4144271906947</v>
+        <v>474.4115729034193</v>
       </c>
       <c r="D42" t="n">
-        <v>367.4144271906947</v>
+        <v>474.4115729034193</v>
       </c>
       <c r="E42" t="n">
-        <v>367.4144271906947</v>
+        <v>316.8020439062739</v>
       </c>
       <c r="F42" t="n">
-        <v>222.4586372073116</v>
+        <v>171.8462539228908</v>
       </c>
       <c r="G42" t="n">
-        <v>85.34623055456925</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="H42" t="n">
         <v>34.73384727014845</v>
@@ -7488,52 +7488,52 @@
         <v>34.73384727014845</v>
       </c>
       <c r="J42" t="n">
-        <v>68.49677569904708</v>
+        <v>68.49677569904711</v>
       </c>
       <c r="K42" t="n">
-        <v>68.49677569904708</v>
+        <v>252.8086112964361</v>
       </c>
       <c r="L42" t="n">
-        <v>307.691742248878</v>
+        <v>561.4882267135823</v>
       </c>
       <c r="M42" t="n">
-        <v>720.7064880385478</v>
+        <v>603.9003849162395</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.537848006635</v>
+        <v>1033.731744884327</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.82444182232</v>
+        <v>1368.018338700011</v>
       </c>
       <c r="P42" t="n">
-        <v>1736.692363507422</v>
+        <v>1619.886260385114</v>
       </c>
       <c r="Q42" t="n">
         <v>1736.692363507422</v>
       </c>
       <c r="R42" t="n">
-        <v>1658.721922193372</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="S42" t="n">
-        <v>1493.343202962676</v>
+        <v>1736.692363507422</v>
       </c>
       <c r="T42" t="n">
-        <v>1493.343202962676</v>
+        <v>1537.45381223424</v>
       </c>
       <c r="U42" t="n">
-        <v>1266.435496702533</v>
+        <v>1310.546105974097</v>
       </c>
       <c r="V42" t="n">
-        <v>1032.184253228133</v>
+        <v>1299.18225672307</v>
       </c>
       <c r="W42" t="n">
-        <v>779.6697615614668</v>
+        <v>1046.667765056403</v>
       </c>
       <c r="X42" t="n">
-        <v>573.1428629670443</v>
+        <v>847.1825598013293</v>
       </c>
       <c r="Y42" t="n">
-        <v>367.4144271906947</v>
+        <v>641.4541240249797</v>
       </c>
     </row>
     <row r="43">
@@ -7570,7 +7570,7 @@
         <v>34.73384727014845</v>
       </c>
       <c r="K43" t="n">
-        <v>47.29315300457172</v>
+        <v>47.29315300457173</v>
       </c>
       <c r="L43" t="n">
         <v>119.1683554634467</v>
@@ -7579,31 +7579,31 @@
         <v>205.5435784316862</v>
       </c>
       <c r="N43" t="n">
-        <v>295.0062535506975</v>
+        <v>295.0062535506976</v>
       </c>
       <c r="O43" t="n">
-        <v>362.3029174212419</v>
+        <v>362.302917421242</v>
       </c>
       <c r="P43" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="R43" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="S43" t="n">
-        <v>211.7425690326839</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="T43" t="n">
-        <v>205.0112057180716</v>
+        <v>389.9329945115193</v>
       </c>
       <c r="U43" t="n">
-        <v>138.9699351926219</v>
+        <v>323.8917239860696</v>
       </c>
       <c r="V43" t="n">
-        <v>106.3660657120151</v>
+        <v>291.2878545054628</v>
       </c>
       <c r="W43" t="n">
         <v>40.27105903900789</v>
@@ -7643,19 +7643,19 @@
         <v>34.73384727014845</v>
       </c>
       <c r="I44" t="n">
-        <v>65.28500409118561</v>
+        <v>65.28500409118543</v>
       </c>
       <c r="J44" t="n">
-        <v>108.9068679036462</v>
+        <v>108.906867903646</v>
       </c>
       <c r="K44" t="n">
-        <v>296.5613266884624</v>
+        <v>296.5613266884623</v>
       </c>
       <c r="L44" t="n">
-        <v>581.332354476496</v>
+        <v>581.3323544764959</v>
       </c>
       <c r="M44" t="n">
-        <v>913.4072862515117</v>
+        <v>913.4072862515116</v>
       </c>
       <c r="N44" t="n">
         <v>1235.33836260403</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>657.6405879699158</v>
+        <v>355.0752689893874</v>
       </c>
       <c r="C45" t="n">
-        <v>484.887472891733</v>
+        <v>182.3221539112046</v>
       </c>
       <c r="D45" t="n">
-        <v>337.2991662506769</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="E45" t="n">
-        <v>179.6896372535316</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="F45" t="n">
         <v>34.73384727014845</v>
@@ -7725,22 +7725,22 @@
         <v>34.73384727014845</v>
       </c>
       <c r="J45" t="n">
-        <v>34.73384727014845</v>
+        <v>68.49677569904711</v>
       </c>
       <c r="K45" t="n">
-        <v>34.73384727014845</v>
+        <v>216.4926175251081</v>
       </c>
       <c r="L45" t="n">
-        <v>343.4134626872947</v>
+        <v>525.1722329422544</v>
       </c>
       <c r="M45" t="n">
-        <v>756.4282084769645</v>
+        <v>938.1869787319242</v>
       </c>
       <c r="N45" t="n">
-        <v>1186.259568445052</v>
+        <v>1368.018338700011</v>
       </c>
       <c r="O45" t="n">
-        <v>1520.546162260736</v>
+        <v>1368.018338700011</v>
       </c>
       <c r="P45" t="n">
         <v>1619.886260385114</v>
@@ -7749,28 +7749,28 @@
         <v>1736.692363507422</v>
       </c>
       <c r="R45" t="n">
-        <v>1736.692363507422</v>
+        <v>1658.721922193372</v>
       </c>
       <c r="S45" t="n">
-        <v>1736.692363507422</v>
+        <v>1493.343202962676</v>
       </c>
       <c r="T45" t="n">
-        <v>1736.692363507422</v>
+        <v>1294.104651689493</v>
       </c>
       <c r="U45" t="n">
-        <v>1509.784657247279</v>
+        <v>1067.19694542935</v>
       </c>
       <c r="V45" t="n">
-        <v>1275.53341377288</v>
+        <v>1019.845095026826</v>
       </c>
       <c r="W45" t="n">
-        <v>1236.938473462248</v>
+        <v>767.3306033601594</v>
       </c>
       <c r="X45" t="n">
-        <v>1030.411574867826</v>
+        <v>560.8037047657369</v>
       </c>
       <c r="Y45" t="n">
-        <v>824.6831390914763</v>
+        <v>355.0752689893874</v>
       </c>
     </row>
     <row r="46">
@@ -7807,7 +7807,7 @@
         <v>34.73384727014845</v>
       </c>
       <c r="K46" t="n">
-        <v>47.29315300457172</v>
+        <v>47.29315300457173</v>
       </c>
       <c r="L46" t="n">
         <v>119.1683554634467</v>
@@ -7816,40 +7816,40 @@
         <v>205.5435784316862</v>
       </c>
       <c r="N46" t="n">
-        <v>295.0062535506975</v>
+        <v>295.0062535506976</v>
       </c>
       <c r="O46" t="n">
-        <v>362.3029174212419</v>
+        <v>362.302917421242</v>
       </c>
       <c r="P46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="Q46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="R46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="S46" t="n">
-        <v>396.6643578261315</v>
+        <v>396.6643578261316</v>
       </c>
       <c r="T46" t="n">
-        <v>386.91392439553</v>
+        <v>389.9329945115193</v>
       </c>
       <c r="U46" t="n">
-        <v>320.8726538700803</v>
+        <v>323.8917239860696</v>
       </c>
       <c r="V46" t="n">
-        <v>288.2687843894735</v>
+        <v>106.3660657120151</v>
       </c>
       <c r="W46" t="n">
-        <v>222.1737777164663</v>
+        <v>40.27105903900789</v>
       </c>
       <c r="X46" t="n">
-        <v>216.6365659476069</v>
+        <v>34.73384727014845</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.6365659476069</v>
+        <v>34.73384727014845</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>171.1697838000136</v>
+        <v>171.1697838000125</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8766,28 +8766,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>73.87636778514678</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>424.9116463238675</v>
+        <v>451.4080917393881</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>76.78923727937016</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8933,7 +8933,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
-        <v>467.4940748325458</v>
+        <v>462.8033788536017</v>
       </c>
       <c r="N14" t="n">
         <v>454.8408013884635</v>
@@ -8945,7 +8945,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.1168943073579</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,10 +9003,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>162.6416608081802</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9015,13 +9015,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>333.4221289895827</v>
+        <v>479.9282827844817</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>76.78923727937018</v>
+        <v>76.78923727937016</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>171.1697838000136</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9176,7 +9176,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>396.0321885132552</v>
+        <v>391.3414925343111</v>
       </c>
       <c r="P17" t="n">
         <v>334.6706564983419</v>
@@ -9240,7 +9240,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.928282784482</v>
+        <v>479.9282827844817</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>71.95358597134951</v>
       </c>
       <c r="P18" t="n">
-        <v>82.37301434427586</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.4944164954767</v>
+        <v>155.2254094206676</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>171.1697838000136</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9413,7 +9413,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
-        <v>396.0321885132552</v>
+        <v>391.3414925343111</v>
       </c>
       <c r="P20" t="n">
         <v>334.6706564983419</v>
@@ -9486,19 +9486,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>83.41507039893609</v>
+        <v>455.8130752549062</v>
       </c>
       <c r="N21" t="n">
-        <v>479.928282784482</v>
+        <v>479.9282827844817</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>76.78923727937016</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>100.4944164954767</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>171.1697838000136</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>332.4205330950671</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>102.74172596434</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.928282784482</v>
+        <v>479.9282827844817</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>71.95358597134951</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>302.0502776709177</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.03070864402656</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K36" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>208.5393585580629</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.1129228403886</v>
+        <v>117.8047509723604</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,28 +10899,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>97.03070864402655</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>73.87636778514675</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>338.1128249685259</v>
+        <v>481.1129228403885</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>76.78923727937018</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>166.969798707705</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11139,16 +11139,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>88.87027518258787</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>315.4874451082083</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>484.3332662999999</v>
+        <v>109.9872182323104</v>
       </c>
       <c r="N42" t="n">
-        <v>488.9065852947348</v>
+        <v>488.9065852947347</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.4944164954767</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,10 +11373,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>97.03070864402656</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>88.87027518258787</v>
+        <v>238.3610245018414</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11385,13 +11385,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>488.9065852947348</v>
+        <v>488.9065852947347</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>71.95358597134951</v>
       </c>
       <c r="P45" t="n">
-        <v>177.1327707383377</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>218.4803792452831</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.5378344848627</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.8065201724103</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9394602487551</v>
+        <v>89.61287027520123</v>
       </c>
       <c r="F11" t="n">
-        <v>185.4726934613504</v>
+        <v>285.1152879740085</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1492688429794</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5689976340753</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73160841495371</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3515414940222</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.683023624637</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>264.5084962447035</v>
@@ -23498,7 +23498,7 @@
         <v>244.8065201724103</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.426157248066</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.1492688429794</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>152.0647725653099</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>72.34859915202856</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2570343856665</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3515414940222</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.683023624637</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>264.5084962447035</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.016727051862597e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-2.211207246900394e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.357136625301791e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.2471763497</v>
+        <v>832204.2471763496</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>832204.2471763497</v>
+        <v>832204.2471763496</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>944699.4027525719</v>
+        <v>944699.4027525717</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>944699.4027525719</v>
+        <v>944699.4027525717</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>944699.4027525719</v>
+        <v>944699.4027525717</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>945498.7081127318</v>
+        <v>945498.7081127316</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>629421.1927606984</v>
+        <v>629421.1927606985</v>
       </c>
       <c r="C2" t="n">
         <v>629421.1927606984</v>
       </c>
       <c r="D2" t="n">
-        <v>629421.1927606985</v>
+        <v>629421.1927606986</v>
       </c>
       <c r="E2" t="n">
-        <v>541368.315449322</v>
+        <v>541368.3154493218</v>
       </c>
       <c r="F2" t="n">
         <v>541368.3154493218</v>
       </c>
       <c r="G2" t="n">
-        <v>630787.5416765752</v>
+        <v>630787.5416765762</v>
       </c>
       <c r="H2" t="n">
-        <v>630787.5416765753</v>
+        <v>630787.541676576</v>
       </c>
       <c r="I2" t="n">
-        <v>630787.5416765753</v>
+        <v>630787.5416765758</v>
       </c>
       <c r="J2" t="n">
-        <v>630787.5416765746</v>
+        <v>630787.5416765747</v>
       </c>
       <c r="K2" t="n">
+        <v>630787.5416765747</v>
+      </c>
+      <c r="L2" t="n">
         <v>630787.5416765745</v>
-      </c>
-      <c r="L2" t="n">
-        <v>630787.5416765744</v>
       </c>
       <c r="M2" t="n">
         <v>630787.5416765756</v>
       </c>
       <c r="N2" t="n">
-        <v>630787.5416765756</v>
+        <v>630787.5416765754</v>
       </c>
       <c r="O2" t="n">
+        <v>630787.541676575</v>
+      </c>
+      <c r="P2" t="n">
         <v>630787.5416765753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>630787.5416765752</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>329999.9964321818</v>
+        <v>329999.9964321817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81106.82224513743</v>
+        <v>81106.82224513747</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110158.5909185751</v>
+        <v>110158.5909185752</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>81106.82224513743</v>
+        <v>81106.82224513746</v>
       </c>
       <c r="M3" t="n">
-        <v>97223.3357036785</v>
+        <v>97223.33570367847</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32405.88661632405</v>
+        <v>32405.88661632403</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>432620.554261892</v>
       </c>
       <c r="E4" t="n">
-        <v>304175.4902391293</v>
+        <v>304175.4902391292</v>
       </c>
       <c r="F4" t="n">
-        <v>304175.4902391293</v>
+        <v>304175.4902391292</v>
       </c>
       <c r="G4" t="n">
-        <v>369769.5259031368</v>
+        <v>369769.5259031367</v>
       </c>
       <c r="H4" t="n">
         <v>369769.5259031368</v>
@@ -26445,7 +26445,7 @@
         <v>368713.8812534644</v>
       </c>
       <c r="L4" t="n">
-        <v>368713.8812534644</v>
+        <v>368713.8812534643</v>
       </c>
       <c r="M4" t="n">
         <v>369693.4668545821</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38980.63494425714</v>
+        <v>38980.63494425712</v>
       </c>
       <c r="F5" t="n">
-        <v>38980.63494425714</v>
+        <v>38980.63494425712</v>
       </c>
       <c r="G5" t="n">
         <v>47503.8467434152</v>
@@ -26491,7 +26491,7 @@
         <v>47503.8467434152</v>
       </c>
       <c r="J5" t="n">
-        <v>58687.82962108242</v>
+        <v>58687.82962108243</v>
       </c>
       <c r="K5" t="n">
         <v>58687.82962108242</v>
@@ -26500,10 +26500,10 @@
         <v>58687.82962108242</v>
       </c>
       <c r="M5" t="n">
-        <v>47543.6649661426</v>
+        <v>47543.66496614261</v>
       </c>
       <c r="N5" t="n">
-        <v>47543.6649661426</v>
+        <v>47543.66496614261</v>
       </c>
       <c r="O5" t="n">
         <v>47805.62621413686</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163173.0384988063</v>
+        <v>163168.6309216584</v>
       </c>
       <c r="C6" t="n">
-        <v>163173.0384988064</v>
+        <v>163168.6309216584</v>
       </c>
       <c r="D6" t="n">
-        <v>163173.0384988064</v>
+        <v>163168.6309216586</v>
       </c>
       <c r="E6" t="n">
-        <v>-131787.8061662462</v>
+        <v>-132076.2552831084</v>
       </c>
       <c r="F6" t="n">
-        <v>198212.1902659353</v>
+        <v>197923.7411490734</v>
       </c>
       <c r="G6" t="n">
-        <v>132407.3467848858</v>
+        <v>132407.3467848868</v>
       </c>
       <c r="H6" t="n">
-        <v>213514.1690300233</v>
+        <v>213514.1690300241</v>
       </c>
       <c r="I6" t="n">
-        <v>213514.1690300233</v>
+        <v>213514.1690300238</v>
       </c>
       <c r="J6" t="n">
-        <v>93227.2398834527</v>
+        <v>93227.23988345274</v>
       </c>
       <c r="K6" t="n">
-        <v>203385.8308020277</v>
+        <v>203385.830802028</v>
       </c>
       <c r="L6" t="n">
-        <v>122279.0085568902</v>
+        <v>122279.0085568903</v>
       </c>
       <c r="M6" t="n">
-        <v>116327.0741521723</v>
+        <v>116327.0741521724</v>
       </c>
       <c r="N6" t="n">
-        <v>213550.4098558509</v>
+        <v>213550.4098558507</v>
       </c>
       <c r="O6" t="n">
-        <v>181024.8814911486</v>
+        <v>181024.8814911482</v>
       </c>
       <c r="P6" t="n">
-        <v>213430.7681074725</v>
+        <v>213430.7681074727</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="F3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="G3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="H3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="I3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="J3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="K3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="L3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="M3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="N3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="O3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="P3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="F4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="G4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="H4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="I4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="J4" t="n">
-        <v>721.8263970232642</v>
+        <v>721.8263970232643</v>
       </c>
       <c r="K4" t="n">
         <v>721.8263970232642</v>
@@ -26820,7 +26820,7 @@
         <v>721.8263970232642</v>
       </c>
       <c r="M4" t="n">
-        <v>426.3794284225094</v>
+        <v>426.3794284225095</v>
       </c>
       <c r="N4" t="n">
         <v>426.3794284225094</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3835278064218</v>
+        <v>101.3835278064219</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.68338787901448</v>
+        <v>40.68338787901445</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.16291744127898</v>
+        <v>38.16291744127895</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.0716122618814</v>
+        <v>131.0716122618815</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.6316086566614</v>
+        <v>296.6316086566617</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.747819765848</v>
+        <v>129.7478197658479</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3835278064218</v>
+        <v>101.3835278064219</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.68338787901448</v>
+        <v>40.68338787901445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S11" t="n">
         <v>122.1785755065324</v>
@@ -28172,22 +28172,22 @@
         <v>122.1785755065324</v>
       </c>
       <c r="D12" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>122.1785755065324</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I12" t="n">
-        <v>72.62221732990922</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>122.1785755065324</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>87.45501647103535</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S14" t="n">
         <v>122.1785755065324</v>
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>122.1785755065324</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>122.1785755065324</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.1785755065324</v>
       </c>
       <c r="H15" t="n">
         <v>107.7396882560888</v>
@@ -28454,19 +28454,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>122.1785755065324</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>87.45501647103515</v>
       </c>
       <c r="W15" t="n">
-        <v>87.45501647103424</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>122.1785755065324</v>
@@ -28524,7 +28524,7 @@
         <v>122.1785755065324</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1785755065324</v>
+        <v>122.178575506532</v>
       </c>
       <c r="Q16" t="n">
         <v>122.1785755065324</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S17" t="n">
         <v>193.8577381982423</v>
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I18" t="n">
         <v>76.79682501022856</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.43572082125312</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T18" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.1494481064715</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J19" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,22 +28764,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R19" t="n">
-        <v>162.7636035017943</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>218.2383203924713</v>
       </c>
       <c r="T19" t="n">
-        <v>25.97161724836224</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="U19" t="n">
         <v>223.5621033129542</v>
       </c>
       <c r="V19" t="n">
-        <v>223.5621033129542</v>
+        <v>188.7352207501563</v>
       </c>
       <c r="W19" t="n">
         <v>223.5621033129542</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S20" t="n">
         <v>193.8577381982423</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>84.67379992219345</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.79682501022856</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>77.19073690091014</v>
       </c>
       <c r="S21" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5621033129542</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5621033129542</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>119.7769414508869</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J22" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R22" t="n">
         <v>162.7636035017943</v>
       </c>
       <c r="S22" t="n">
-        <v>20.64783432787939</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T22" t="n">
         <v>223.5621033129542</v>
@@ -29022,7 +29022,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="X22" t="n">
-        <v>223.5621033129542</v>
+        <v>25.97161724836192</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S23" t="n">
         <v>193.8577381982423</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>52.54081693468893</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>107.7396882560888</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.246165760451</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>212.1818971917305</v>
+        <v>223.5621033129542</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -29208,7 +29208,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>42.19103294232035</v>
+        <v>167.6532302850457</v>
       </c>
       <c r="H25" t="n">
         <v>159.5326287828165</v>
@@ -29217,7 +29217,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R25" t="n">
         <v>162.7636035017943</v>
@@ -29253,7 +29253,7 @@
         <v>223.5621033129542</v>
       </c>
       <c r="V25" t="n">
-        <v>223.5621033129542</v>
+        <v>25.97161724836195</v>
       </c>
       <c r="W25" t="n">
         <v>223.5621033129542</v>
@@ -29357,19 +29357,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>131.5604578551337</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7412825862149</v>
       </c>
       <c r="H27" t="n">
-        <v>13.7168604256551</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I27" t="n">
         <v>76.79682501022856</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>142.0669156854363</v>
-      </c>
-      <c r="T27" t="n">
-        <v>142.0669156854363</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29454,25 +29454,25 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J28" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K28" t="n">
         <v>142.0669156854363</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12.35818787845078</v>
+      </c>
+      <c r="O28" t="n">
         <v>142.0669156854363</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>12.35818787845143</v>
-      </c>
       <c r="P28" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>142.0669156854363</v>
@@ -29554,7 +29554,7 @@
         <v>142.0669156854363</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0669156854367</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="R29" t="n">
         <v>142.0669156854363</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7412825862149</v>
+        <v>125.2348247559126</v>
       </c>
       <c r="H30" t="n">
         <v>107.7396882560888</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>142.0669156854363</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>54.36972095422351</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29703,16 +29703,16 @@
         <v>142.0669156854363</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>142.0669156854363</v>
-      </c>
-      <c r="O31" t="n">
-        <v>24.5175901760139</v>
       </c>
       <c r="P31" t="n">
         <v>142.0669156854363</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.96888642430409</v>
+        <v>84.48647660031759</v>
       </c>
       <c r="R31" t="n">
         <v>142.0669156854363</v>
@@ -29785,7 +29785,7 @@
         <v>142.0669156854363</v>
       </c>
       <c r="O32" t="n">
-        <v>142.0669156854368</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="P32" t="n">
         <v>142.0669156854363</v>
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7412825862149</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>107.7396882560888</v>
@@ -29873,19 +29873,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>54.36972095422387</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="T33" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>125.2348247559124</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29928,25 +29928,25 @@
         <v>142.0669156854363</v>
       </c>
       <c r="J34" t="n">
-        <v>72.12828872186662</v>
+        <v>84.486476600318</v>
       </c>
       <c r="K34" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>142.0669156854363</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>142.0669156854363</v>
       </c>
       <c r="N34" t="n">
-        <v>12.35818787845155</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>142.0669156854363</v>
       </c>
       <c r="Q34" t="n">
         <v>142.0669156854363</v>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S35" t="n">
         <v>193.8577381982423</v>
@@ -30065,13 +30065,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -30080,7 +30080,7 @@
         <v>135.7412825862149</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7396882560888</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>76.79682501022856</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>163.724932038389</v>
       </c>
       <c r="T36" t="n">
-        <v>72.58694405332909</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>223.1789907188739</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>153.6373422946264</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -30165,7 +30165,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J37" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R37" t="n">
         <v>162.7636035017943</v>
@@ -30195,7 +30195,7 @@
         <v>218.2383203924713</v>
       </c>
       <c r="T37" t="n">
-        <v>223.1789907188739</v>
+        <v>27.50406762468316</v>
       </c>
       <c r="U37" t="n">
         <v>223.1789907188739</v>
@@ -30207,7 +30207,7 @@
         <v>223.1789907188739</v>
       </c>
       <c r="X37" t="n">
-        <v>176.5096341392026</v>
+        <v>223.1789907188739</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S38" t="n">
         <v>193.8577381982423</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30311,13 +30311,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.7412825862149</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7396882560888</v>
+        <v>46.54556590272998</v>
       </c>
       <c r="I39" t="n">
         <v>76.79682501022856</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>38.35484967671519</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>223.1789907188739</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>147.1723718982874</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30402,7 +30402,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J40" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R40" t="n">
-        <v>162.7636035017943</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>218.2383203924713</v>
@@ -30441,7 +30441,7 @@
         <v>223.1789907188739</v>
       </c>
       <c r="W40" t="n">
-        <v>27.50406762468322</v>
+        <v>223.1789907188739</v>
       </c>
       <c r="X40" t="n">
         <v>223.1789907188739</v>
@@ -30478,7 +30478,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I41" t="n">
-        <v>188.9691562032739</v>
+        <v>184.9101839214861</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>30.85975436468385</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30505,10 +30505,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S41" t="n">
-        <v>220.6585202811384</v>
+        <v>193.8577381982423</v>
       </c>
       <c r="T41" t="n">
         <v>220.6585202811384</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -30545,7 +30545,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>57.6334288045122</v>
+        <v>107.7396882560888</v>
       </c>
       <c r="I42" t="n">
         <v>76.79682501022856</v>
@@ -30584,25 +30584,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.19073690091014</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.724932038389</v>
       </c>
       <c r="T42" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>6.971276405955365</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J43" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R43" t="n">
         <v>162.7636035017943</v>
       </c>
       <c r="S43" t="n">
-        <v>35.16574948695819</v>
+        <v>218.2383203924713</v>
       </c>
       <c r="T43" t="n">
         <v>220.6585202811384</v>
@@ -30678,7 +30678,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="W43" t="n">
-        <v>220.6585202811384</v>
+        <v>37.58594937562518</v>
       </c>
       <c r="X43" t="n">
         <v>220.6585202811384</v>
@@ -30715,7 +30715,7 @@
         <v>220.6585202811384</v>
       </c>
       <c r="I44" t="n">
-        <v>215.7699382861701</v>
+        <v>215.7699382861699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.7516180225036</v>
+        <v>108.7516180225035</v>
       </c>
       <c r="S44" t="n">
         <v>193.8577381982423</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30782,10 +30782,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.7412825862149</v>
@@ -30821,22 +30821,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.19073690091014</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.724932038389</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.246165760451</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>185.0303991411566</v>
       </c>
       <c r="W45" t="n">
-        <v>211.7803558424742</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30876,7 +30876,7 @@
         <v>146.6505977258904</v>
       </c>
       <c r="J46" t="n">
-        <v>72.12828872186662</v>
+        <v>72.12828872186661</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.96888642430409</v>
+        <v>59.96888642430407</v>
       </c>
       <c r="R46" t="n">
         <v>162.7636035017943</v>
@@ -30906,13 +30906,13 @@
         <v>218.2383203924713</v>
       </c>
       <c r="T46" t="n">
-        <v>217.6696408663092</v>
+        <v>220.6585202811384</v>
       </c>
       <c r="U46" t="n">
         <v>220.6585202811384</v>
       </c>
       <c r="V46" t="n">
-        <v>220.6585202811384</v>
+        <v>37.58594937562518</v>
       </c>
       <c r="W46" t="n">
         <v>220.6585202811384</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H11" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I11" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J11" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K11" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L11" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M11" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N11" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O11" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P11" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R11" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S11" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T11" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I12" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J12" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K12" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L12" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M12" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N12" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O12" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P12" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R12" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S12" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T12" t="n">
         <v>1.136366147817632</v>
@@ -31911,46 +31911,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H13" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I13" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J13" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K13" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L13" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M13" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N13" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O13" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P13" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R13" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S13" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T13" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H14" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I14" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J14" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K14" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L14" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M14" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N14" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O14" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P14" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R14" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S14" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T14" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H15" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I15" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J15" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K15" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L15" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M15" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N15" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O15" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P15" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R15" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S15" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T15" t="n">
         <v>1.136366147817632</v>
@@ -32148,46 +32148,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H16" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I16" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J16" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K16" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L16" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M16" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N16" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O16" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P16" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R16" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S16" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T16" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H17" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I17" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J17" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K17" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L17" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M17" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N17" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O17" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P17" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R17" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S17" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T17" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I18" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J18" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K18" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L18" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M18" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N18" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O18" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P18" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R18" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S18" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T18" t="n">
         <v>1.136366147817632</v>
@@ -32385,46 +32385,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H19" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I19" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J19" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K19" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L19" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M19" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N19" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O19" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P19" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R19" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S19" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T19" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H20" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I20" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J20" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K20" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L20" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M20" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N20" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O20" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P20" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R20" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S20" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T20" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H21" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I21" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J21" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K21" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L21" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M21" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N21" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O21" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P21" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R21" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S21" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T21" t="n">
         <v>1.136366147817632</v>
@@ -32622,46 +32622,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H22" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I22" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J22" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K22" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L22" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M22" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N22" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O22" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P22" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R22" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S22" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T22" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H23" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I23" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J23" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K23" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L23" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M23" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N23" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O23" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P23" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R23" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S23" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T23" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H24" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I24" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J24" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K24" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L24" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M24" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N24" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O24" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P24" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R24" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S24" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T24" t="n">
         <v>1.136366147817632</v>
@@ -32859,46 +32859,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H25" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I25" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J25" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K25" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L25" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M25" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N25" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O25" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P25" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R25" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S25" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T25" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H26" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I26" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J26" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K26" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L26" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M26" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N26" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O26" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P26" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R26" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S26" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T26" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H27" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I27" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J27" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K27" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L27" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M27" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N27" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O27" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P27" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R27" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S27" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T27" t="n">
         <v>1.136366147817632</v>
@@ -33096,46 +33096,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H28" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I28" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J28" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K28" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L28" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M28" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N28" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O28" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P28" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R28" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S28" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T28" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H29" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I29" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J29" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K29" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L29" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M29" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N29" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O29" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P29" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R29" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S29" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T29" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H30" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I30" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J30" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K30" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L30" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M30" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N30" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O30" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P30" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R30" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S30" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T30" t="n">
         <v>1.136366147817632</v>
@@ -33333,46 +33333,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H31" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I31" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J31" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K31" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L31" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M31" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N31" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O31" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P31" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R31" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S31" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T31" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H32" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I32" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J32" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K32" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L32" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M32" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N32" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O32" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P32" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R32" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S32" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T32" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I33" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J33" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K33" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L33" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M33" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N33" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O33" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P33" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R33" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S33" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T33" t="n">
         <v>1.136366147817632</v>
@@ -33570,46 +33570,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H34" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I34" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J34" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K34" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L34" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M34" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N34" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O34" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P34" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R34" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S34" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T34" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H35" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I35" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J35" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K35" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L35" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M35" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N35" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O35" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P35" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R35" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S35" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T35" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H36" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I36" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J36" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K36" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L36" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M36" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N36" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O36" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P36" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R36" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S36" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T36" t="n">
         <v>1.136366147817632</v>
@@ -33807,46 +33807,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H37" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I37" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J37" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K37" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L37" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M37" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N37" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O37" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P37" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R37" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S37" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T37" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H38" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I38" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J38" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K38" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L38" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M38" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N38" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O38" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P38" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R38" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S38" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T38" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H39" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I39" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J39" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K39" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L39" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M39" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N39" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O39" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P39" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R39" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S39" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T39" t="n">
         <v>1.136366147817632</v>
@@ -34044,46 +34044,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H40" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I40" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J40" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K40" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L40" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M40" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N40" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O40" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P40" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R40" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S40" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T40" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H41" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I41" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J41" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K41" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L41" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M41" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N41" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O41" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P41" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R41" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S41" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T41" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H42" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I42" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J42" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K42" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L42" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M42" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N42" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O42" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P42" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R42" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S42" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T42" t="n">
         <v>1.136366147817632</v>
@@ -34281,46 +34281,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H43" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I43" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J43" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K43" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L43" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M43" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N43" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O43" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P43" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R43" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S43" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T43" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5269210543191208</v>
+        <v>0.5269210543191211</v>
       </c>
       <c r="H44" t="n">
-        <v>5.396330247545698</v>
+        <v>5.396330247545699</v>
       </c>
       <c r="I44" t="n">
-        <v>20.31412394663792</v>
+        <v>20.31412394663793</v>
       </c>
       <c r="J44" t="n">
-        <v>44.72176583401752</v>
+        <v>44.72176583401754</v>
       </c>
       <c r="K44" t="n">
-        <v>67.02633406334591</v>
+        <v>67.02633406334594</v>
       </c>
       <c r="L44" t="n">
-        <v>83.15209427946473</v>
+        <v>83.15209427946476</v>
       </c>
       <c r="M44" t="n">
-        <v>92.52272657921239</v>
+        <v>92.52272657921243</v>
       </c>
       <c r="N44" t="n">
-        <v>94.01984102479659</v>
+        <v>94.01984102479663</v>
       </c>
       <c r="O44" t="n">
-        <v>88.78026979091084</v>
+        <v>88.78026979091088</v>
       </c>
       <c r="P44" t="n">
-        <v>75.77190626240753</v>
+        <v>75.77190626240755</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.90154600460399</v>
+        <v>56.90154600460402</v>
       </c>
       <c r="R44" t="n">
-        <v>33.0992046783735</v>
+        <v>33.09920467837352</v>
       </c>
       <c r="S44" t="n">
         <v>12.00721352529698</v>
       </c>
       <c r="T44" t="n">
-        <v>2.306596915281952</v>
+        <v>2.306596915281954</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04215368434552966</v>
+        <v>0.04215368434552967</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.281927618827443</v>
+        <v>0.2819276188274432</v>
       </c>
       <c r="H45" t="n">
-        <v>2.72282726604399</v>
+        <v>2.722827266043991</v>
       </c>
       <c r="I45" t="n">
-        <v>9.706718455243106</v>
+        <v>9.706718455243109</v>
       </c>
       <c r="J45" t="n">
-        <v>26.63597735597347</v>
+        <v>26.63597735597348</v>
       </c>
       <c r="K45" t="n">
-        <v>45.52512781741215</v>
+        <v>45.52512781741217</v>
       </c>
       <c r="L45" t="n">
-        <v>61.21415250023056</v>
+        <v>61.21415250023059</v>
       </c>
       <c r="M45" t="n">
-        <v>71.43402868272535</v>
+        <v>71.43402868272538</v>
       </c>
       <c r="N45" t="n">
-        <v>73.3246748633708</v>
+        <v>73.32467486337084</v>
       </c>
       <c r="O45" t="n">
-        <v>67.07775236198377</v>
+        <v>67.0777523619838</v>
       </c>
       <c r="P45" t="n">
-        <v>53.83580994960182</v>
+        <v>53.83580994960185</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.98781323839431</v>
+        <v>35.98781323839432</v>
       </c>
       <c r="R45" t="n">
-        <v>17.50424286018107</v>
+        <v>17.50424286018108</v>
       </c>
       <c r="S45" t="n">
-        <v>5.236681867255353</v>
+        <v>5.236681867255355</v>
       </c>
       <c r="T45" t="n">
         <v>1.136366147817632</v>
@@ -34518,46 +34518,46 @@
         <v>0.2363586450624091</v>
       </c>
       <c r="H46" t="n">
-        <v>2.101443226100329</v>
+        <v>2.10144322610033</v>
       </c>
       <c r="I46" t="n">
-        <v>7.107949071513176</v>
+        <v>7.107949071513179</v>
       </c>
       <c r="J46" t="n">
-        <v>16.71055620591232</v>
+        <v>16.71055620591233</v>
       </c>
       <c r="K46" t="n">
-        <v>27.4605771263417</v>
+        <v>27.46057712634171</v>
       </c>
       <c r="L46" t="n">
-        <v>35.1400843759149</v>
+        <v>35.14008437591491</v>
       </c>
       <c r="M46" t="n">
-        <v>37.05029197101017</v>
+        <v>37.05029197101019</v>
       </c>
       <c r="N46" t="n">
-        <v>36.16931883941395</v>
+        <v>36.16931883941396</v>
       </c>
       <c r="O46" t="n">
-        <v>33.40822012209397</v>
+        <v>33.40822012209399</v>
       </c>
       <c r="P46" t="n">
-        <v>28.58650376282081</v>
+        <v>28.58650376282082</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.79181345154409</v>
+        <v>19.7918134515441</v>
       </c>
       <c r="R46" t="n">
-        <v>10.62754416798795</v>
+        <v>10.62754416798796</v>
       </c>
       <c r="S46" t="n">
-        <v>4.119086568951254</v>
+        <v>4.119086568951256</v>
       </c>
       <c r="T46" t="n">
-        <v>1.00989602890302</v>
+        <v>1.009896028903021</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01289228973067687</v>
+        <v>0.01289228973067688</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.37179272051196</v>
+        <v>39.3717927205109</v>
       </c>
       <c r="K11" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L11" t="n">
         <v>287.6475028161956</v>
@@ -35419,7 +35419,7 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N11" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O11" t="n">
         <v>260.4667021680215</v>
@@ -35428,7 +35428,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K12" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N12" t="n">
-        <v>370.1781519059883</v>
+        <v>396.6745973215089</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P12" t="n">
-        <v>254.4120421061644</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>156.887101168037</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20968908222827</v>
+        <v>62.20968908222828</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K14" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L14" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M14" t="n">
-        <v>335.4292240151673</v>
+        <v>330.7385280362232</v>
       </c>
       <c r="N14" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O14" t="n">
         <v>260.4667021680215</v>
@@ -35665,7 +35665,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.27039268437366</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.10396810999862</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>186.1735713104939</v>
+        <v>73.7713856255924</v>
       </c>
       <c r="L15" t="n">
         <v>311.7975913304508</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N15" t="n">
-        <v>278.6886345717035</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="O15" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>190.1550036585974</v>
       </c>
       <c r="P16" t="n">
-        <v>156.887101168037</v>
+        <v>156.8871011680367</v>
       </c>
       <c r="Q16" t="n">
         <v>62.20968908222828</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.37179272051196</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K17" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L17" t="n">
         <v>287.6475028161956</v>
@@ -35893,16 +35893,16 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N17" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O17" t="n">
-        <v>260.4667021680215</v>
+        <v>255.7760061890774</v>
       </c>
       <c r="P17" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K18" t="n">
         <v>186.1735713104939</v>
@@ -35969,19 +35969,19 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M18" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N18" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="O18" t="n">
-        <v>337.6632260764491</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.583777064905669</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>54.73099292519099</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L19" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M19" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N19" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O19" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P19" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.37179272051196</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K20" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L20" t="n">
         <v>287.6475028161956</v>
@@ -36130,16 +36130,16 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N20" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O20" t="n">
-        <v>260.4667021680215</v>
+        <v>255.7760061890774</v>
       </c>
       <c r="P20" t="n">
         <v>184.9903918993617</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K21" t="n">
         <v>186.1735713104939</v>
@@ -36206,19 +36206,19 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M21" t="n">
-        <v>16.26841600769359</v>
+        <v>388.6664208636637</v>
       </c>
       <c r="N21" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P21" t="n">
-        <v>254.4120421061644</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.9859627498064</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L22" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M22" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N22" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O22" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P22" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.37179272051196</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K23" t="n">
-        <v>189.5499583685012</v>
+        <v>184.859262389557</v>
       </c>
       <c r="L23" t="n">
         <v>287.6475028161956</v>
@@ -36367,7 +36367,7 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N23" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O23" t="n">
         <v>260.4667021680215</v>
@@ -36376,7 +36376,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.10396810999862</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L24" t="n">
-        <v>28.86535817919322</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M24" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N24" t="n">
-        <v>425.1947883666028</v>
+        <v>425.1947883666026</v>
       </c>
       <c r="O24" t="n">
-        <v>337.6632260764491</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>254.4120421061644</v>
+        <v>225.2610403915476</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L25" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M25" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N25" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O25" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P25" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>186.1294043848914</v>
       </c>
       <c r="K26" t="n">
-        <v>331.6168740539375</v>
+        <v>331.6168740539376</v>
       </c>
       <c r="L26" t="n">
-        <v>429.7144185016318</v>
+        <v>429.7144185016319</v>
       </c>
       <c r="M26" t="n">
-        <v>477.4961397006035</v>
+        <v>477.4961397006036</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2498210920202</v>
+        <v>467.2498210920203</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5336178534577</v>
+        <v>402.5336178534578</v>
       </c>
       <c r="P26" t="n">
         <v>327.057307584798</v>
@@ -36616,7 +36616,7 @@
         <v>203.0280043487529</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31529766293269</v>
+        <v>33.31529766293275</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K27" t="n">
         <v>186.1735713104939</v>
@@ -36680,16 +36680,16 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M27" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N27" t="n">
-        <v>443.7825748994164</v>
+        <v>443.7825748994165</v>
       </c>
       <c r="O27" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P27" t="n">
-        <v>254.4120421061644</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q27" t="n">
         <v>117.9859627498064</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7530830939446</v>
+        <v>154.7530830939447</v>
       </c>
       <c r="L28" t="n">
-        <v>72.60121460492418</v>
+        <v>214.6681302903605</v>
       </c>
       <c r="M28" t="n">
-        <v>229.314615653355</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N28" t="n">
-        <v>90.36633850405184</v>
+        <v>102.7245263825026</v>
       </c>
       <c r="O28" t="n">
-        <v>80.33461603051647</v>
+        <v>210.0433438375014</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7754413469409</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.09802926113218</v>
+        <v>82.09802926113223</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.1294043848914</v>
       </c>
       <c r="K29" t="n">
-        <v>331.6168740539375</v>
+        <v>331.6168740539376</v>
       </c>
       <c r="L29" t="n">
         <v>429.7144185016319</v>
@@ -36841,19 +36841,19 @@
         <v>477.4961397006036</v>
       </c>
       <c r="N29" t="n">
-        <v>467.2498210920202</v>
+        <v>467.2498210920203</v>
       </c>
       <c r="O29" t="n">
-        <v>402.5336178534577</v>
+        <v>402.5336178534578</v>
       </c>
       <c r="P29" t="n">
         <v>327.057307584798</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0280043487533</v>
+        <v>203.0280043487529</v>
       </c>
       <c r="R29" t="n">
-        <v>33.3152976629327</v>
+        <v>33.31529766293274</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K30" t="n">
         <v>186.1735713104939</v>
@@ -36917,16 +36917,16 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M30" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N30" t="n">
-        <v>443.7825748994164</v>
+        <v>443.7825748994165</v>
       </c>
       <c r="O30" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P30" t="n">
-        <v>254.4120421061644</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q30" t="n">
         <v>117.9859627498064</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.93862696356965</v>
+        <v>69.93862696356969</v>
       </c>
       <c r="K31" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L31" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M31" t="n">
         <v>229.314615653355</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4332541894881</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O31" t="n">
-        <v>92.49401832807894</v>
+        <v>210.0433438375014</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7754413469409</v>
+        <v>176.775441346941</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>24.51759017601351</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>467.2498210920202</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5336178534582</v>
+        <v>402.5336178534578</v>
       </c>
       <c r="P32" t="n">
         <v>327.057307584798</v>
@@ -37090,7 +37090,7 @@
         <v>203.0280043487529</v>
       </c>
       <c r="R32" t="n">
-        <v>33.3152976629327</v>
+        <v>33.31529766293271</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K33" t="n">
         <v>186.1735713104939</v>
@@ -37154,16 +37154,16 @@
         <v>311.7975913304508</v>
       </c>
       <c r="M33" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N33" t="n">
-        <v>443.7825748994164</v>
+        <v>443.7825748994165</v>
       </c>
       <c r="O33" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P33" t="n">
-        <v>254.4120421061644</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q33" t="n">
         <v>117.9859627498064</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>12.35818787845139</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7530830939446</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L34" t="n">
-        <v>214.6681302903605</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M34" t="n">
         <v>229.314615653355</v>
       </c>
       <c r="N34" t="n">
-        <v>102.7245263825034</v>
+        <v>232.4332541894881</v>
       </c>
       <c r="O34" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P34" t="n">
-        <v>34.70852566150465</v>
+        <v>176.7754413469409</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.09802926113218</v>
+        <v>82.0980292611322</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K35" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L35" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M35" t="n">
-        <v>335.4292240151673</v>
+        <v>335.4292240151677</v>
       </c>
       <c r="N35" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O35" t="n">
         <v>260.4667021680215</v>
@@ -37324,7 +37324,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L36" t="n">
-        <v>134.6629907729161</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M36" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N36" t="n">
-        <v>426.3794284225094</v>
+        <v>63.07125655448131</v>
       </c>
       <c r="O36" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P36" t="n">
-        <v>254.4120421061644</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q36" t="n">
         <v>117.9859627498064</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L37" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M37" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N37" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O37" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P37" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K38" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L38" t="n">
         <v>287.6475028161956</v>
@@ -37552,7 +37552,7 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N38" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O38" t="n">
         <v>260.4667021680215</v>
@@ -37561,7 +37561,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.10396810999862</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>186.1735713104939</v>
       </c>
       <c r="L39" t="n">
-        <v>311.7975913304508</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N39" t="n">
-        <v>283.3793305506467</v>
+        <v>426.3794284225094</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.9859627498064</v>
+        <v>66.47538221222838</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L40" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M40" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N40" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O40" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P40" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,22 +37774,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.058972281787767</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K41" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L41" t="n">
         <v>287.6475028161956</v>
       </c>
       <c r="M41" t="n">
-        <v>335.4292240151673</v>
+        <v>366.2889783798512</v>
       </c>
       <c r="N41" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O41" t="n">
         <v>260.4667021680215</v>
@@ -37798,13 +37798,13 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>26.80078208289615</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.10396810999862</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>186.1735713104939</v>
       </c>
       <c r="L42" t="n">
-        <v>241.6110773230615</v>
+        <v>311.7975913304508</v>
       </c>
       <c r="M42" t="n">
-        <v>417.1866119087574</v>
+        <v>42.8405638410679</v>
       </c>
       <c r="N42" t="n">
         <v>434.1730908768556</v>
       </c>
       <c r="O42" t="n">
-        <v>337.6632260764491</v>
+        <v>337.6632260764492</v>
       </c>
       <c r="P42" t="n">
-        <v>254.4120421061644</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>117.9859627498064</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L43" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M43" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N43" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O43" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P43" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.859754364684</v>
+        <v>30.85975436468381</v>
       </c>
       <c r="J44" t="n">
-        <v>44.0624886994551</v>
+        <v>44.06248869945512</v>
       </c>
       <c r="K44" t="n">
-        <v>189.5499583685012</v>
+        <v>189.5499583685013</v>
       </c>
       <c r="L44" t="n">
         <v>287.6475028161956</v>
@@ -38026,7 +38026,7 @@
         <v>335.4292240151673</v>
       </c>
       <c r="N44" t="n">
-        <v>325.1829054065839</v>
+        <v>325.182905406584</v>
       </c>
       <c r="O44" t="n">
         <v>260.4667021680215</v>
@@ -38035,7 +38035,7 @@
         <v>184.9903918993617</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.96108866331661</v>
+        <v>60.96108866331664</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.10396810999863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>149.4907493192536</v>
       </c>
       <c r="L45" t="n">
         <v>311.7975913304508</v>
       </c>
       <c r="M45" t="n">
-        <v>417.1866119087574</v>
+        <v>417.1866119087575</v>
       </c>
       <c r="N45" t="n">
         <v>434.1730908768556</v>
       </c>
       <c r="O45" t="n">
-        <v>337.6632260764491</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>100.3435334589675</v>
+        <v>254.4120421061645</v>
       </c>
       <c r="Q45" t="n">
         <v>117.9859627498064</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.68616740850835</v>
+        <v>12.68616740850836</v>
       </c>
       <c r="L46" t="n">
-        <v>72.60121460492418</v>
+        <v>72.60121460492419</v>
       </c>
       <c r="M46" t="n">
-        <v>87.24769996791873</v>
+        <v>87.24769996791875</v>
       </c>
       <c r="N46" t="n">
-        <v>90.36633850405184</v>
+        <v>90.36633850405185</v>
       </c>
       <c r="O46" t="n">
-        <v>67.97642815206504</v>
+        <v>67.97642815206505</v>
       </c>
       <c r="P46" t="n">
-        <v>34.70852566150465</v>
+        <v>34.70852566150466</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
